--- a/Normalization.xlsx
+++ b/Normalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HenriLACHAIZE\PycharmProjects\Normalization_Pump_OT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F639176D-5E11-4197-8987-C8D61BDB3273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9281DAF-FF34-4F81-BA87-A84049639924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,6 +692,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -983,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,78 +1201,34 @@
       <c r="B13" s="6">
         <v>4.3</v>
       </c>
-      <c r="C13" s="6">
-        <v>9.4</v>
-      </c>
-      <c r="D13" s="27">
-        <v>2.7</v>
-      </c>
-      <c r="E13" s="17">
-        <v>3.7</v>
-      </c>
-      <c r="F13" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="H13" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="I13" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="J13" s="6">
-        <v>6.8</v>
-      </c>
-      <c r="K13" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L13" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M13" s="6">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
       <c r="Q13" s="49" t="s">
         <v>4</v>
       </c>
       <c r="R13" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S13" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="T13" s="27">
-        <v>7.4</v>
-      </c>
-      <c r="U13" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="V13" s="6">
-        <v>8</v>
-      </c>
-      <c r="W13" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="X13" s="28">
-        <v>7.7</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>9.6999999999999993</v>
-      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
@@ -1278,78 +1237,34 @@
       <c r="B14" s="6">
         <v>4.2</v>
       </c>
-      <c r="C14" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="D14" s="25">
-        <v>2.6</v>
-      </c>
-      <c r="E14" s="29">
-        <v>3.4</v>
-      </c>
-      <c r="F14" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="H14" s="22">
-        <v>3.3</v>
-      </c>
-      <c r="I14" s="30">
-        <v>3.7</v>
-      </c>
-      <c r="J14" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="K14" s="6">
-        <v>9.1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M14" s="6">
-        <v>4.5</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="Q14" s="49" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="S14" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T14" s="25">
-        <v>8</v>
-      </c>
-      <c r="U14" s="29">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="V14" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="W14" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="X14" s="22">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="30">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="AB14" s="6">
-        <v>10.7</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>10</v>
-      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="49" t="s">
@@ -1358,39 +1273,17 @@
       <c r="B15" s="14">
         <v>3.2</v>
       </c>
-      <c r="C15" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="D15" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="E15" s="30">
-        <v>3.7</v>
-      </c>
-      <c r="F15" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="G15" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="H15" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="I15" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="J15" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K15" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="L15" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="M15" s="32">
-        <v>3.6</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="49" t="s">
         <v>6</v>
@@ -1398,39 +1291,17 @@
       <c r="R15" s="14">
         <v>8.1</v>
       </c>
-      <c r="S15" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="T15" s="15">
-        <v>6.6</v>
-      </c>
-      <c r="U15" s="30">
-        <v>7.2</v>
-      </c>
-      <c r="V15" s="6">
-        <v>7</v>
-      </c>
-      <c r="W15" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="X15" s="21">
-        <v>6.8</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>6.8</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="AB15" s="31">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AC15" s="32">
-        <v>9.6999999999999993</v>
-      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="32"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="49" t="s">
@@ -1439,39 +1310,17 @@
       <c r="B16" s="6">
         <v>7.2</v>
       </c>
-      <c r="C16" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="F16" s="33">
-        <v>3</v>
-      </c>
-      <c r="G16" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="H16" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="I16" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="J16" s="23">
-        <v>3.6</v>
-      </c>
-      <c r="K16" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="L16" s="34">
-        <v>2.4</v>
-      </c>
-      <c r="M16" s="18">
-        <v>3.7</v>
-      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="18"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="49" t="s">
         <v>7</v>
@@ -1479,39 +1328,17 @@
       <c r="R16" s="6">
         <v>6.8</v>
       </c>
-      <c r="S16" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="T16" s="13">
-        <v>6.9</v>
-      </c>
-      <c r="U16" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="V16" s="33">
-        <v>6.4</v>
-      </c>
-      <c r="W16" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="X16" s="20">
-        <v>5.9</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="Z16" s="23">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="AB16" s="34">
-        <v>8.4</v>
-      </c>
-      <c r="AC16" s="18">
-        <v>10.7</v>
-      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="18"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
@@ -1520,39 +1347,17 @@
       <c r="B17" s="6">
         <v>4.5</v>
       </c>
-      <c r="C17" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G17" s="6">
-        <v>10.3</v>
-      </c>
-      <c r="H17" s="35">
-        <v>2.4</v>
-      </c>
-      <c r="I17" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="J17" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="K17" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="L17" s="16">
-        <v>2.8</v>
-      </c>
-      <c r="M17" s="23">
-        <v>3.6</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="23"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="49" t="s">
         <v>8</v>
@@ -1560,39 +1365,17 @@
       <c r="R17" s="6">
         <v>7</v>
       </c>
-      <c r="S17" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="T17" s="13">
-        <v>6.1</v>
-      </c>
-      <c r="U17" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="V17" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="W17" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="X17" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>9.1</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>6.5</v>
-      </c>
-      <c r="AC17" s="23">
-        <v>9</v>
-      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="23"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="49" t="s">
@@ -1601,78 +1384,34 @@
       <c r="B18" s="19">
         <v>3.3</v>
       </c>
-      <c r="C18" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="G18" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I18" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>11</v>
-      </c>
-      <c r="L18" s="26">
-        <v>4</v>
-      </c>
-      <c r="M18" s="6">
-        <v>4.8</v>
-      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="6"/>
       <c r="Q18" s="49" t="s">
         <v>9</v>
       </c>
       <c r="R18" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="S18" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="T18" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="U18" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="V18" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="W18" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="X18" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="Y18" s="12">
-        <v>8.6</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AB18" s="26">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>9.4</v>
-      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="6"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
@@ -1681,78 +1420,34 @@
       <c r="B19" s="6">
         <v>7.3</v>
       </c>
-      <c r="C19" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D19" s="36">
-        <v>3.6</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6">
-        <v>15.2</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="J19" s="37">
-        <v>3.9</v>
-      </c>
-      <c r="K19" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="L19" s="24">
-        <v>2.1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>4.5</v>
-      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="6"/>
       <c r="Q19" s="49" t="s">
         <v>10</v>
       </c>
       <c r="R19" s="6">
         <v>9</v>
       </c>
-      <c r="S19" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="T19" s="36">
-        <v>7.5</v>
-      </c>
-      <c r="U19" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="V19" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="W19" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="X19" s="13">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Z19" s="37">
-        <v>7</v>
-      </c>
-      <c r="AA19" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="AB19" s="24">
-        <v>7.4</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>7.8</v>
-      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="6"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
@@ -1761,76 +1456,34 @@
       <c r="B20" s="13">
         <v>0.7</v>
       </c>
-      <c r="C20" s="6">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J20" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="K20" s="6">
-        <v>8.4</v>
-      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="6">
-        <v>8.8000000000000007</v>
-      </c>
+      <c r="M20" s="6"/>
       <c r="Q20" s="49" t="s">
         <v>11</v>
       </c>
       <c r="R20" s="13">
         <v>10.199999999999999</v>
       </c>
-      <c r="S20" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="T20" s="13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="U20" s="6">
-        <v>7.9</v>
-      </c>
-      <c r="V20" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="W20" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="X20" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>7</v>
-      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="6"/>
     </row>
     <row r="22" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
@@ -2373,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="50">
-        <f t="shared" si="2"/>
+        <f>J$29</f>
         <v>10</v>
       </c>
       <c r="K33" s="50">
@@ -3607,36 +3260,16 @@
       <c r="C60" s="41">
         <v>4</v>
       </c>
-      <c r="D60" s="41">
-        <v>4</v>
-      </c>
-      <c r="E60" s="41">
-        <v>4</v>
-      </c>
-      <c r="F60" s="41">
-        <v>4</v>
-      </c>
-      <c r="G60" s="41">
-        <v>4</v>
-      </c>
-      <c r="H60" s="41">
-        <v>4</v>
-      </c>
-      <c r="I60" s="41">
-        <v>4</v>
-      </c>
-      <c r="J60" s="41">
-        <v>4</v>
-      </c>
-      <c r="K60" s="41">
-        <v>4</v>
-      </c>
-      <c r="L60" s="41">
-        <v>4</v>
-      </c>
-      <c r="M60" s="41">
-        <v>4</v>
-      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
       <c r="Q60" s="49" t="s">
         <v>4</v>
       </c>
@@ -3691,43 +3324,43 @@
       </c>
       <c r="D61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M61" s="52">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="49" t="s">
         <v>5</v>
@@ -3795,43 +3428,43 @@
       </c>
       <c r="D62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M62" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="49" t="s">
@@ -3900,43 +3533,43 @@
       </c>
       <c r="D63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M63" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="49" t="s">
@@ -4005,43 +3638,43 @@
       </c>
       <c r="D64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M64" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="49" t="s">
@@ -4110,43 +3743,43 @@
       </c>
       <c r="D65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M65" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="49" t="s">
         <v>9</v>
@@ -4214,43 +3847,43 @@
       </c>
       <c r="D66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M66" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="49" t="s">
         <v>10</v>
@@ -4318,43 +3951,43 @@
       </c>
       <c r="D67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M67" s="52">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="49" t="s">
         <v>11</v>
@@ -4409,13 +4042,13 @@
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A70" s="39" t="s">
+      <c r="D70" s="53" t="s">
         <v>36</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="Q70" s="39" t="s">
+      <c r="T70" s="53" t="s">
         <v>35</v>
       </c>
       <c r="U70" t="s">

--- a/Normalization.xlsx
+++ b/Normalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HenriLACHAIZE\PycharmProjects\Normalization_Pump_OT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9281DAF-FF34-4F81-BA87-A84049639924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B5F659-ED2A-454E-8BE8-9F79E730A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,12 +675,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,6 +689,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -987,7 +987,7 @@
   <dimension ref="A2:AC83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1000,19 +1000,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" s="44" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="F2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="F2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="O2" s="45"/>
-      <c r="V2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="V2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F3" s="5"/>
@@ -1118,84 +1118,84 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="49">
-        <v>1</v>
-      </c>
-      <c r="C12" s="49">
-        <v>2</v>
-      </c>
-      <c r="D12" s="49">
+      <c r="B12" s="47">
+        <v>1</v>
+      </c>
+      <c r="C12" s="47">
+        <v>2</v>
+      </c>
+      <c r="D12" s="47">
         <v>3</v>
       </c>
-      <c r="E12" s="49">
-        <v>4</v>
-      </c>
-      <c r="F12" s="49">
+      <c r="E12" s="47">
+        <v>4</v>
+      </c>
+      <c r="F12" s="47">
         <v>5</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="47">
         <v>6</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="47">
         <v>7</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="47">
         <v>8</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="47">
         <v>9</v>
       </c>
-      <c r="K12" s="49">
-        <v>10</v>
-      </c>
-      <c r="L12" s="49">
+      <c r="K12" s="47">
+        <v>10</v>
+      </c>
+      <c r="L12" s="47">
         <v>11</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="47">
         <v>12</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="49">
-        <v>1</v>
-      </c>
-      <c r="S12" s="49">
-        <v>2</v>
-      </c>
-      <c r="T12" s="49">
+      <c r="R12" s="47">
+        <v>1</v>
+      </c>
+      <c r="S12" s="47">
+        <v>2</v>
+      </c>
+      <c r="T12" s="47">
         <v>3</v>
       </c>
-      <c r="U12" s="49">
-        <v>4</v>
-      </c>
-      <c r="V12" s="49">
+      <c r="U12" s="47">
+        <v>4</v>
+      </c>
+      <c r="V12" s="47">
         <v>5</v>
       </c>
-      <c r="W12" s="49">
+      <c r="W12" s="47">
         <v>6</v>
       </c>
-      <c r="X12" s="49">
+      <c r="X12" s="47">
         <v>7</v>
       </c>
-      <c r="Y12" s="49">
+      <c r="Y12" s="47">
         <v>8</v>
       </c>
-      <c r="Z12" s="49">
+      <c r="Z12" s="47">
         <v>9</v>
       </c>
-      <c r="AA12" s="49">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="49">
+      <c r="AA12" s="47">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="47">
         <v>11</v>
       </c>
-      <c r="AC12" s="49">
+      <c r="AC12" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="6">
@@ -1212,7 +1212,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Q13" s="49" t="s">
+      <c r="Q13" s="47" t="s">
         <v>4</v>
       </c>
       <c r="R13" s="6">
@@ -1231,7 +1231,7 @@
       <c r="AC13" s="6"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="6">
@@ -1248,7 +1248,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="Q14" s="49" t="s">
+      <c r="Q14" s="47" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="6">
@@ -1267,7 +1267,7 @@
       <c r="AC14" s="6"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="14">
@@ -1285,7 +1285,7 @@
       <c r="L15" s="31"/>
       <c r="M15" s="32"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="49" t="s">
+      <c r="Q15" s="47" t="s">
         <v>6</v>
       </c>
       <c r="R15" s="14">
@@ -1304,7 +1304,7 @@
       <c r="AC15" s="32"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="6">
@@ -1322,7 +1322,7 @@
       <c r="L16" s="34"/>
       <c r="M16" s="18"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="49" t="s">
+      <c r="Q16" s="47" t="s">
         <v>7</v>
       </c>
       <c r="R16" s="6">
@@ -1341,7 +1341,7 @@
       <c r="AC16" s="18"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="6">
@@ -1359,7 +1359,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="23"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="49" t="s">
+      <c r="Q17" s="47" t="s">
         <v>8</v>
       </c>
       <c r="R17" s="6">
@@ -1378,7 +1378,7 @@
       <c r="AC17" s="23"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="19">
@@ -1395,7 +1395,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="26"/>
       <c r="M18" s="6"/>
-      <c r="Q18" s="49" t="s">
+      <c r="Q18" s="47" t="s">
         <v>9</v>
       </c>
       <c r="R18" s="19">
@@ -1414,7 +1414,7 @@
       <c r="AC18" s="6"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="6">
@@ -1431,7 +1431,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="24"/>
       <c r="M19" s="6"/>
-      <c r="Q19" s="49" t="s">
+      <c r="Q19" s="47" t="s">
         <v>10</v>
       </c>
       <c r="R19" s="6">
@@ -1450,7 +1450,7 @@
       <c r="AC19" s="6"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="13">
@@ -1467,7 +1467,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="13"/>
       <c r="M20" s="6"/>
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="47" t="s">
         <v>11</v>
       </c>
       <c r="R20" s="13">
@@ -1519,889 +1519,889 @@
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="49">
-        <v>1</v>
-      </c>
-      <c r="C28" s="49">
-        <v>2</v>
-      </c>
-      <c r="D28" s="49">
+      <c r="B28" s="47">
+        <v>1</v>
+      </c>
+      <c r="C28" s="47">
+        <v>2</v>
+      </c>
+      <c r="D28" s="47">
         <v>3</v>
       </c>
-      <c r="E28" s="49">
-        <v>4</v>
-      </c>
-      <c r="F28" s="49">
+      <c r="E28" s="47">
+        <v>4</v>
+      </c>
+      <c r="F28" s="47">
         <v>5</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="47">
         <v>6</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="47">
         <v>7</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="47">
         <v>8</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="47">
         <v>9</v>
       </c>
-      <c r="K28" s="49">
-        <v>10</v>
-      </c>
-      <c r="L28" s="49">
+      <c r="K28" s="47">
+        <v>10</v>
+      </c>
+      <c r="L28" s="47">
         <v>11</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="47">
         <v>12</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="49">
-        <v>1</v>
-      </c>
-      <c r="S28" s="49">
-        <v>2</v>
-      </c>
-      <c r="T28" s="49">
+      <c r="R28" s="47">
+        <v>1</v>
+      </c>
+      <c r="S28" s="47">
+        <v>2</v>
+      </c>
+      <c r="T28" s="47">
         <v>3</v>
       </c>
-      <c r="U28" s="49">
-        <v>4</v>
-      </c>
-      <c r="V28" s="49">
+      <c r="U28" s="47">
+        <v>4</v>
+      </c>
+      <c r="V28" s="47">
         <v>5</v>
       </c>
-      <c r="W28" s="49">
+      <c r="W28" s="47">
         <v>6</v>
       </c>
-      <c r="X28" s="49">
+      <c r="X28" s="47">
         <v>7</v>
       </c>
-      <c r="Y28" s="49">
+      <c r="Y28" s="47">
         <v>8</v>
       </c>
-      <c r="Z28" s="49">
+      <c r="Z28" s="47">
         <v>9</v>
       </c>
-      <c r="AA28" s="49">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="49">
+      <c r="AA28" s="47">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="47">
         <v>11</v>
       </c>
-      <c r="AC28" s="49">
+      <c r="AC28" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A29" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="51">
-        <v>4</v>
-      </c>
-      <c r="C29" s="51">
-        <v>4</v>
-      </c>
-      <c r="D29" s="51">
-        <v>4</v>
-      </c>
-      <c r="E29" s="51">
-        <v>4</v>
-      </c>
-      <c r="F29" s="51">
-        <v>0</v>
-      </c>
-      <c r="G29" s="51">
-        <v>10</v>
-      </c>
-      <c r="H29" s="51">
-        <v>10</v>
-      </c>
-      <c r="I29" s="51">
+      <c r="A29" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="49">
+        <v>4</v>
+      </c>
+      <c r="C29" s="49">
+        <v>4</v>
+      </c>
+      <c r="D29" s="49">
+        <v>4</v>
+      </c>
+      <c r="E29" s="49">
+        <v>4</v>
+      </c>
+      <c r="F29" s="49">
+        <v>0</v>
+      </c>
+      <c r="G29" s="49">
+        <v>10</v>
+      </c>
+      <c r="H29" s="49">
+        <v>10</v>
+      </c>
+      <c r="I29" s="49">
         <v>15</v>
       </c>
-      <c r="J29" s="51">
-        <v>10</v>
-      </c>
-      <c r="K29" s="51">
-        <v>10</v>
-      </c>
-      <c r="L29" s="51">
-        <v>10</v>
-      </c>
-      <c r="M29" s="51">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="51">
-        <v>2</v>
-      </c>
-      <c r="S29" s="51">
-        <v>2</v>
-      </c>
-      <c r="T29" s="51">
-        <v>2</v>
-      </c>
-      <c r="U29" s="51">
-        <v>2</v>
-      </c>
-      <c r="V29" s="51">
-        <v>2</v>
-      </c>
-      <c r="W29" s="51">
-        <v>2</v>
-      </c>
-      <c r="X29" s="51">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="51">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="51">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="51">
-        <v>2</v>
-      </c>
-      <c r="AB29" s="51">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="51">
+      <c r="J29" s="49">
+        <v>10</v>
+      </c>
+      <c r="K29" s="49">
+        <v>10</v>
+      </c>
+      <c r="L29" s="49">
+        <v>10</v>
+      </c>
+      <c r="M29" s="49">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="49">
+        <v>2</v>
+      </c>
+      <c r="S29" s="49">
+        <v>2</v>
+      </c>
+      <c r="T29" s="49">
+        <v>2</v>
+      </c>
+      <c r="U29" s="49">
+        <v>2</v>
+      </c>
+      <c r="V29" s="49">
+        <v>2</v>
+      </c>
+      <c r="W29" s="49">
+        <v>2</v>
+      </c>
+      <c r="X29" s="49">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="49">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="49">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="49">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="49">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="48">
         <f>B$29</f>
         <v>4</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="48">
         <f t="shared" ref="C30:M30" si="0">C$29</f>
         <v>4</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="48">
         <f>I$29</f>
         <v>15</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K30" s="50">
+      <c r="K30" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L30" s="50">
+      <c r="L30" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M30" s="50">
+      <c r="M30" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="R30" s="50">
+      <c r="R30" s="48">
         <f>R$29</f>
         <v>2</v>
       </c>
-      <c r="S30" s="50">
+      <c r="S30" s="48">
         <f t="shared" ref="S30:AC30" si="1">S$29</f>
         <v>2</v>
       </c>
-      <c r="T30" s="50">
+      <c r="T30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U30" s="50">
+      <c r="U30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V30" s="50">
+      <c r="V30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W30" s="50">
+      <c r="W30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X30" s="50">
+      <c r="X30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Y30" s="50">
+      <c r="Y30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Z30" s="50">
+      <c r="Z30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AA30" s="50">
+      <c r="AA30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AB30" s="50">
+      <c r="AB30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC30" s="50">
+      <c r="AC30" s="48">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="48">
         <f t="shared" ref="B31:M36" si="2">B$29</f>
         <v>4</v>
       </c>
-      <c r="C31" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D31" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E31" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F31" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H31" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I31" s="50">
+      <c r="C31" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D31" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I31" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J31" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K31" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L31" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M31" s="50">
+      <c r="J31" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K31" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L31" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M31" s="48">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="49" t="s">
+      <c r="Q31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R31" s="48">
         <f t="shared" ref="R31:AC36" si="3">R$29</f>
         <v>2</v>
       </c>
-      <c r="S31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB31" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC31" s="50">
+      <c r="S31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB31" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC31" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C32" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D32" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E32" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F32" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H32" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I32" s="50">
+      <c r="B32" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D32" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J32" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K32" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L32" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M32" s="50">
+      <c r="J32" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K32" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L32" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M32" s="48">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="49" t="s">
+      <c r="Q32" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB32" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC32" s="50">
+      <c r="R32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB32" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC32" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C33" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D33" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E33" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F33" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H33" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I33" s="50">
+      <c r="B33" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C33" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D33" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I33" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="48">
         <f>J$29</f>
         <v>10</v>
       </c>
-      <c r="K33" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L33" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M33" s="50">
+      <c r="K33" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L33" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M33" s="48">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P33" s="4"/>
-      <c r="Q33" s="49" t="s">
+      <c r="Q33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB33" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC33" s="50">
+      <c r="R33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB33" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC33" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C34" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D34" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E34" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F34" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H34" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I34" s="50">
+      <c r="B34" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D34" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E34" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F34" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I34" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J34" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K34" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L34" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M34" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q34" s="49" t="s">
+      <c r="J34" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K34" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L34" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M34" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q34" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB34" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC34" s="50">
+      <c r="R34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB34" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC34" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C35" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D35" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E35" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F35" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H35" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I35" s="50">
+      <c r="A35" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D35" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E35" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H35" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I35" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J35" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K35" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L35" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M35" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q35" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="R35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB35" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC35" s="50">
+      <c r="J35" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K35" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L35" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M35" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q35" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB35" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC35" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C36" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D36" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E36" s="50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F36" s="50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I36" s="50">
+      <c r="B36" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D36" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E36" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I36" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J36" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K36" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L36" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M36" s="50">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q36" s="49" t="s">
+      <c r="J36" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K36" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L36" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M36" s="48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q36" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="X36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Y36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB36" s="50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AC36" s="50">
+      <c r="R36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Z36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB36" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC36" s="48">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2418,722 +2418,722 @@
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="49">
-        <v>1</v>
-      </c>
-      <c r="C41" s="49">
-        <v>2</v>
-      </c>
-      <c r="D41" s="49">
+      <c r="B41" s="47">
+        <v>1</v>
+      </c>
+      <c r="C41" s="47">
+        <v>2</v>
+      </c>
+      <c r="D41" s="47">
         <v>3</v>
       </c>
-      <c r="E41" s="49">
-        <v>4</v>
-      </c>
-      <c r="F41" s="49">
+      <c r="E41" s="47">
+        <v>4</v>
+      </c>
+      <c r="F41" s="47">
         <v>5</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="47">
         <v>6</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="47">
         <v>7</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="47">
         <v>8</v>
       </c>
-      <c r="J41" s="49">
+      <c r="J41" s="47">
         <v>9</v>
       </c>
-      <c r="K41" s="49">
-        <v>10</v>
-      </c>
-      <c r="L41" s="49">
+      <c r="K41" s="47">
+        <v>10</v>
+      </c>
+      <c r="L41" s="47">
         <v>11</v>
       </c>
-      <c r="M41" s="49">
+      <c r="M41" s="47">
         <v>12</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R41" s="49">
-        <v>1</v>
-      </c>
-      <c r="S41" s="49">
-        <v>2</v>
-      </c>
-      <c r="T41" s="49">
+      <c r="R41" s="47">
+        <v>1</v>
+      </c>
+      <c r="S41" s="47">
+        <v>2</v>
+      </c>
+      <c r="T41" s="47">
         <v>3</v>
       </c>
-      <c r="U41" s="49">
-        <v>4</v>
-      </c>
-      <c r="V41" s="49">
+      <c r="U41" s="47">
+        <v>4</v>
+      </c>
+      <c r="V41" s="47">
         <v>5</v>
       </c>
-      <c r="W41" s="49">
+      <c r="W41" s="47">
         <v>6</v>
       </c>
-      <c r="X41" s="49">
+      <c r="X41" s="47">
         <v>7</v>
       </c>
-      <c r="Y41" s="49">
+      <c r="Y41" s="47">
         <v>8</v>
       </c>
-      <c r="Z41" s="49">
+      <c r="Z41" s="47">
         <v>9</v>
       </c>
-      <c r="AA41" s="49">
-        <v>10</v>
-      </c>
-      <c r="AB41" s="49">
+      <c r="AA41" s="47">
+        <v>10</v>
+      </c>
+      <c r="AB41" s="47">
         <v>11</v>
       </c>
-      <c r="AC41" s="49">
+      <c r="AC41" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="51">
-        <v>1</v>
-      </c>
-      <c r="C42" s="51">
-        <v>1</v>
-      </c>
-      <c r="D42" s="51">
-        <v>1</v>
-      </c>
-      <c r="E42" s="51">
-        <v>1</v>
-      </c>
-      <c r="F42" s="51">
-        <v>1</v>
-      </c>
-      <c r="G42" s="51">
-        <v>1</v>
-      </c>
-      <c r="H42" s="51">
-        <v>1</v>
-      </c>
-      <c r="I42" s="51">
-        <v>1</v>
-      </c>
-      <c r="J42" s="51">
-        <v>1</v>
-      </c>
-      <c r="K42" s="51">
-        <v>1</v>
-      </c>
-      <c r="L42" s="51">
-        <v>1</v>
-      </c>
-      <c r="M42" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="51">
-        <v>1</v>
-      </c>
-      <c r="S42" s="51">
-        <v>1</v>
-      </c>
-      <c r="T42" s="51">
-        <v>1</v>
-      </c>
-      <c r="U42" s="51">
-        <v>1</v>
-      </c>
-      <c r="V42" s="51">
-        <v>1</v>
-      </c>
-      <c r="W42" s="51">
-        <v>1</v>
-      </c>
-      <c r="X42" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="51">
+      <c r="A42" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="49">
+        <v>1</v>
+      </c>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
+      <c r="D42" s="49">
+        <v>1</v>
+      </c>
+      <c r="E42" s="49">
+        <v>1</v>
+      </c>
+      <c r="F42" s="49">
+        <v>1</v>
+      </c>
+      <c r="G42" s="49">
+        <v>1</v>
+      </c>
+      <c r="H42" s="49">
+        <v>1</v>
+      </c>
+      <c r="I42" s="49">
+        <v>1</v>
+      </c>
+      <c r="J42" s="49">
+        <v>1</v>
+      </c>
+      <c r="K42" s="49">
+        <v>1</v>
+      </c>
+      <c r="L42" s="49">
+        <v>1</v>
+      </c>
+      <c r="M42" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="49">
+        <v>1</v>
+      </c>
+      <c r="S42" s="49">
+        <v>1</v>
+      </c>
+      <c r="T42" s="49">
+        <v>1</v>
+      </c>
+      <c r="U42" s="49">
+        <v>1</v>
+      </c>
+      <c r="V42" s="49">
+        <v>1</v>
+      </c>
+      <c r="W42" s="49">
+        <v>1</v>
+      </c>
+      <c r="X42" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="51">
-        <v>2</v>
-      </c>
-      <c r="C43" s="51">
-        <v>2</v>
-      </c>
-      <c r="D43" s="51">
-        <v>2</v>
-      </c>
-      <c r="E43" s="51">
-        <v>2</v>
-      </c>
-      <c r="F43" s="51">
-        <v>2</v>
-      </c>
-      <c r="G43" s="51">
-        <v>2</v>
-      </c>
-      <c r="H43" s="51">
-        <v>2</v>
-      </c>
-      <c r="I43" s="51">
-        <v>2</v>
-      </c>
-      <c r="J43" s="51">
-        <v>2</v>
-      </c>
-      <c r="K43" s="51">
-        <v>2</v>
-      </c>
-      <c r="L43" s="51">
-        <v>2</v>
-      </c>
-      <c r="M43" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="49" t="s">
+      <c r="B43" s="49">
+        <v>2</v>
+      </c>
+      <c r="C43" s="49">
+        <v>2</v>
+      </c>
+      <c r="D43" s="49">
+        <v>2</v>
+      </c>
+      <c r="E43" s="49">
+        <v>2</v>
+      </c>
+      <c r="F43" s="49">
+        <v>2</v>
+      </c>
+      <c r="G43" s="49">
+        <v>2</v>
+      </c>
+      <c r="H43" s="49">
+        <v>2</v>
+      </c>
+      <c r="I43" s="49">
+        <v>2</v>
+      </c>
+      <c r="J43" s="49">
+        <v>2</v>
+      </c>
+      <c r="K43" s="49">
+        <v>2</v>
+      </c>
+      <c r="L43" s="49">
+        <v>2</v>
+      </c>
+      <c r="M43" s="49">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="51">
-        <v>1</v>
-      </c>
-      <c r="S43" s="51">
-        <v>1</v>
-      </c>
-      <c r="T43" s="51">
-        <v>1</v>
-      </c>
-      <c r="U43" s="51">
-        <v>1</v>
-      </c>
-      <c r="V43" s="51">
-        <v>1</v>
-      </c>
-      <c r="W43" s="51">
-        <v>1</v>
-      </c>
-      <c r="X43" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="51">
+      <c r="R43" s="49">
+        <v>1</v>
+      </c>
+      <c r="S43" s="49">
+        <v>1</v>
+      </c>
+      <c r="T43" s="49">
+        <v>1</v>
+      </c>
+      <c r="U43" s="49">
+        <v>1</v>
+      </c>
+      <c r="V43" s="49">
+        <v>1</v>
+      </c>
+      <c r="W43" s="49">
+        <v>1</v>
+      </c>
+      <c r="X43" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="49">
         <v>3</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="49">
         <v>3</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="49">
         <v>3</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="49">
         <v>3</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="49">
         <v>3</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="49">
         <v>3</v>
       </c>
-      <c r="H44" s="51">
+      <c r="H44" s="49">
         <v>3</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="49">
         <v>3</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="49">
         <v>3</v>
       </c>
-      <c r="K44" s="51">
+      <c r="K44" s="49">
         <v>3</v>
       </c>
-      <c r="L44" s="51">
+      <c r="L44" s="49">
         <v>3</v>
       </c>
-      <c r="M44" s="51">
+      <c r="M44" s="49">
         <v>3</v>
       </c>
       <c r="P44" s="3"/>
-      <c r="Q44" s="49" t="s">
+      <c r="Q44" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R44" s="51">
-        <v>1</v>
-      </c>
-      <c r="S44" s="51">
-        <v>1</v>
-      </c>
-      <c r="T44" s="51">
-        <v>1</v>
-      </c>
-      <c r="U44" s="51">
-        <v>1</v>
-      </c>
-      <c r="V44" s="51">
-        <v>1</v>
-      </c>
-      <c r="W44" s="51">
-        <v>1</v>
-      </c>
-      <c r="X44" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="51">
+      <c r="R44" s="49">
+        <v>1</v>
+      </c>
+      <c r="S44" s="49">
+        <v>1</v>
+      </c>
+      <c r="T44" s="49">
+        <v>1</v>
+      </c>
+      <c r="U44" s="49">
+        <v>1</v>
+      </c>
+      <c r="V44" s="49">
+        <v>1</v>
+      </c>
+      <c r="W44" s="49">
+        <v>1</v>
+      </c>
+      <c r="X44" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="51">
-        <v>2</v>
-      </c>
-      <c r="C45" s="51">
-        <v>2</v>
-      </c>
-      <c r="D45" s="51">
-        <v>2</v>
-      </c>
-      <c r="E45" s="51">
-        <v>2</v>
-      </c>
-      <c r="F45" s="51">
-        <v>2</v>
-      </c>
-      <c r="G45" s="51">
-        <v>2</v>
-      </c>
-      <c r="H45" s="51">
-        <v>2</v>
-      </c>
-      <c r="I45" s="51">
-        <v>2</v>
-      </c>
-      <c r="J45" s="51">
-        <v>2</v>
-      </c>
-      <c r="K45" s="51">
-        <v>2</v>
-      </c>
-      <c r="L45" s="51">
-        <v>2</v>
-      </c>
-      <c r="M45" s="51">
+      <c r="B45" s="49">
+        <v>2</v>
+      </c>
+      <c r="C45" s="49">
+        <v>2</v>
+      </c>
+      <c r="D45" s="49">
+        <v>2</v>
+      </c>
+      <c r="E45" s="49">
+        <v>2</v>
+      </c>
+      <c r="F45" s="49">
+        <v>2</v>
+      </c>
+      <c r="G45" s="49">
+        <v>2</v>
+      </c>
+      <c r="H45" s="49">
+        <v>2</v>
+      </c>
+      <c r="I45" s="49">
+        <v>2</v>
+      </c>
+      <c r="J45" s="49">
+        <v>2</v>
+      </c>
+      <c r="K45" s="49">
+        <v>2</v>
+      </c>
+      <c r="L45" s="49">
+        <v>2</v>
+      </c>
+      <c r="M45" s="49">
         <v>2</v>
       </c>
       <c r="P45" s="3"/>
-      <c r="Q45" s="49" t="s">
+      <c r="Q45" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R45" s="51">
-        <v>1</v>
-      </c>
-      <c r="S45" s="51">
-        <v>1</v>
-      </c>
-      <c r="T45" s="51">
-        <v>1</v>
-      </c>
-      <c r="U45" s="51">
-        <v>1</v>
-      </c>
-      <c r="V45" s="51">
-        <v>1</v>
-      </c>
-      <c r="W45" s="51">
-        <v>1</v>
-      </c>
-      <c r="X45" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="51">
+      <c r="R45" s="49">
+        <v>1</v>
+      </c>
+      <c r="S45" s="49">
+        <v>1</v>
+      </c>
+      <c r="T45" s="49">
+        <v>1</v>
+      </c>
+      <c r="U45" s="49">
+        <v>1</v>
+      </c>
+      <c r="V45" s="49">
+        <v>1</v>
+      </c>
+      <c r="W45" s="49">
+        <v>1</v>
+      </c>
+      <c r="X45" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="51">
-        <v>1</v>
-      </c>
-      <c r="C46" s="51">
-        <v>1</v>
-      </c>
-      <c r="D46" s="51">
-        <v>1</v>
-      </c>
-      <c r="E46" s="51">
-        <v>1</v>
-      </c>
-      <c r="F46" s="51">
-        <v>1</v>
-      </c>
-      <c r="G46" s="51">
-        <v>1</v>
-      </c>
-      <c r="H46" s="51">
-        <v>1</v>
-      </c>
-      <c r="I46" s="51">
-        <v>1</v>
-      </c>
-      <c r="J46" s="51">
-        <v>1</v>
-      </c>
-      <c r="K46" s="51">
-        <v>1</v>
-      </c>
-      <c r="L46" s="51">
-        <v>1</v>
-      </c>
-      <c r="M46" s="51">
+      <c r="B46" s="49">
+        <v>1</v>
+      </c>
+      <c r="C46" s="49">
+        <v>1</v>
+      </c>
+      <c r="D46" s="49">
+        <v>1</v>
+      </c>
+      <c r="E46" s="49">
+        <v>1</v>
+      </c>
+      <c r="F46" s="49">
+        <v>1</v>
+      </c>
+      <c r="G46" s="49">
+        <v>1</v>
+      </c>
+      <c r="H46" s="49">
+        <v>1</v>
+      </c>
+      <c r="I46" s="49">
+        <v>1</v>
+      </c>
+      <c r="J46" s="49">
+        <v>1</v>
+      </c>
+      <c r="K46" s="49">
+        <v>1</v>
+      </c>
+      <c r="L46" s="49">
+        <v>1</v>
+      </c>
+      <c r="M46" s="49">
         <v>1</v>
       </c>
       <c r="P46" s="4"/>
-      <c r="Q46" s="49" t="s">
+      <c r="Q46" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R46" s="51">
-        <v>1</v>
-      </c>
-      <c r="S46" s="51">
-        <v>1</v>
-      </c>
-      <c r="T46" s="51">
-        <v>1</v>
-      </c>
-      <c r="U46" s="51">
-        <v>1</v>
-      </c>
-      <c r="V46" s="51">
-        <v>1</v>
-      </c>
-      <c r="W46" s="51">
-        <v>1</v>
-      </c>
-      <c r="X46" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="51">
+      <c r="R46" s="49">
+        <v>1</v>
+      </c>
+      <c r="S46" s="49">
+        <v>1</v>
+      </c>
+      <c r="T46" s="49">
+        <v>1</v>
+      </c>
+      <c r="U46" s="49">
+        <v>1</v>
+      </c>
+      <c r="V46" s="49">
+        <v>1</v>
+      </c>
+      <c r="W46" s="49">
+        <v>1</v>
+      </c>
+      <c r="X46" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="51">
-        <v>2</v>
-      </c>
-      <c r="C47" s="51">
-        <v>2</v>
-      </c>
-      <c r="D47" s="51">
-        <v>2</v>
-      </c>
-      <c r="E47" s="51">
-        <v>2</v>
-      </c>
-      <c r="F47" s="51">
-        <v>2</v>
-      </c>
-      <c r="G47" s="51">
-        <v>2</v>
-      </c>
-      <c r="H47" s="51">
-        <v>2</v>
-      </c>
-      <c r="I47" s="51">
-        <v>2</v>
-      </c>
-      <c r="J47" s="51">
-        <v>2</v>
-      </c>
-      <c r="K47" s="51">
-        <v>2</v>
-      </c>
-      <c r="L47" s="51">
-        <v>2</v>
-      </c>
-      <c r="M47" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="49" t="s">
+      <c r="B47" s="49">
+        <v>2</v>
+      </c>
+      <c r="C47" s="49">
+        <v>2</v>
+      </c>
+      <c r="D47" s="49">
+        <v>2</v>
+      </c>
+      <c r="E47" s="49">
+        <v>2</v>
+      </c>
+      <c r="F47" s="49">
+        <v>2</v>
+      </c>
+      <c r="G47" s="49">
+        <v>2</v>
+      </c>
+      <c r="H47" s="49">
+        <v>2</v>
+      </c>
+      <c r="I47" s="49">
+        <v>2</v>
+      </c>
+      <c r="J47" s="49">
+        <v>2</v>
+      </c>
+      <c r="K47" s="49">
+        <v>2</v>
+      </c>
+      <c r="L47" s="49">
+        <v>2</v>
+      </c>
+      <c r="M47" s="49">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R47" s="51">
-        <v>1</v>
-      </c>
-      <c r="S47" s="51">
-        <v>1</v>
-      </c>
-      <c r="T47" s="51">
-        <v>1</v>
-      </c>
-      <c r="U47" s="51">
-        <v>1</v>
-      </c>
-      <c r="V47" s="51">
-        <v>1</v>
-      </c>
-      <c r="W47" s="51">
-        <v>1</v>
-      </c>
-      <c r="X47" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="51">
+      <c r="R47" s="49">
+        <v>1</v>
+      </c>
+      <c r="S47" s="49">
+        <v>1</v>
+      </c>
+      <c r="T47" s="49">
+        <v>1</v>
+      </c>
+      <c r="U47" s="49">
+        <v>1</v>
+      </c>
+      <c r="V47" s="49">
+        <v>1</v>
+      </c>
+      <c r="W47" s="49">
+        <v>1</v>
+      </c>
+      <c r="X47" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A48" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="51">
+      <c r="A48" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="49">
         <v>3</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="49">
         <v>3</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="49">
         <v>3</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="49">
         <v>3</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="49">
         <v>3</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="49">
         <v>3</v>
       </c>
-      <c r="H48" s="51">
+      <c r="H48" s="49">
         <v>3</v>
       </c>
-      <c r="I48" s="51">
+      <c r="I48" s="49">
         <v>3</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="49">
         <v>3</v>
       </c>
-      <c r="K48" s="51">
+      <c r="K48" s="49">
         <v>3</v>
       </c>
-      <c r="L48" s="51">
+      <c r="L48" s="49">
         <v>3</v>
       </c>
-      <c r="M48" s="51">
+      <c r="M48" s="49">
         <v>3</v>
       </c>
-      <c r="Q48" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="51">
-        <v>1</v>
-      </c>
-      <c r="S48" s="51">
-        <v>1</v>
-      </c>
-      <c r="T48" s="51">
-        <v>1</v>
-      </c>
-      <c r="U48" s="51">
-        <v>1</v>
-      </c>
-      <c r="V48" s="51">
-        <v>1</v>
-      </c>
-      <c r="W48" s="51">
-        <v>1</v>
-      </c>
-      <c r="X48" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="51">
+      <c r="Q48" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="49">
+        <v>1</v>
+      </c>
+      <c r="S48" s="49">
+        <v>1</v>
+      </c>
+      <c r="T48" s="49">
+        <v>1</v>
+      </c>
+      <c r="U48" s="49">
+        <v>1</v>
+      </c>
+      <c r="V48" s="49">
+        <v>1</v>
+      </c>
+      <c r="W48" s="49">
+        <v>1</v>
+      </c>
+      <c r="X48" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="51">
-        <v>2</v>
-      </c>
-      <c r="C49" s="51">
-        <v>2</v>
-      </c>
-      <c r="D49" s="51">
-        <v>2</v>
-      </c>
-      <c r="E49" s="51">
-        <v>2</v>
-      </c>
-      <c r="F49" s="51">
-        <v>2</v>
-      </c>
-      <c r="G49" s="51">
-        <v>2</v>
-      </c>
-      <c r="H49" s="51">
-        <v>2</v>
-      </c>
-      <c r="I49" s="51">
-        <v>2</v>
-      </c>
-      <c r="J49" s="51">
-        <v>2</v>
-      </c>
-      <c r="K49" s="51">
-        <v>2</v>
-      </c>
-      <c r="L49" s="51">
-        <v>2</v>
-      </c>
-      <c r="M49" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q49" s="49" t="s">
+      <c r="B49" s="49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="49">
+        <v>2</v>
+      </c>
+      <c r="H49" s="49">
+        <v>2</v>
+      </c>
+      <c r="I49" s="49">
+        <v>2</v>
+      </c>
+      <c r="J49" s="49">
+        <v>2</v>
+      </c>
+      <c r="K49" s="49">
+        <v>2</v>
+      </c>
+      <c r="L49" s="49">
+        <v>2</v>
+      </c>
+      <c r="M49" s="49">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R49" s="51">
-        <v>1</v>
-      </c>
-      <c r="S49" s="51">
-        <v>1</v>
-      </c>
-      <c r="T49" s="51">
-        <v>1</v>
-      </c>
-      <c r="U49" s="51">
-        <v>1</v>
-      </c>
-      <c r="V49" s="51">
-        <v>1</v>
-      </c>
-      <c r="W49" s="51">
-        <v>1</v>
-      </c>
-      <c r="X49" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="51">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="51">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="51">
+      <c r="R49" s="49">
+        <v>1</v>
+      </c>
+      <c r="S49" s="49">
+        <v>1</v>
+      </c>
+      <c r="T49" s="49">
+        <v>1</v>
+      </c>
+      <c r="U49" s="49">
+        <v>1</v>
+      </c>
+      <c r="V49" s="49">
+        <v>1</v>
+      </c>
+      <c r="W49" s="49">
+        <v>1</v>
+      </c>
+      <c r="X49" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="49">
         <v>1</v>
       </c>
     </row>
@@ -3174,84 +3174,84 @@
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="49">
-        <v>1</v>
-      </c>
-      <c r="C59" s="49">
-        <v>2</v>
-      </c>
-      <c r="D59" s="49">
+      <c r="B59" s="47">
+        <v>1</v>
+      </c>
+      <c r="C59" s="47">
+        <v>2</v>
+      </c>
+      <c r="D59" s="47">
         <v>3</v>
       </c>
-      <c r="E59" s="49">
-        <v>4</v>
-      </c>
-      <c r="F59" s="49">
+      <c r="E59" s="47">
+        <v>4</v>
+      </c>
+      <c r="F59" s="47">
         <v>5</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="47">
         <v>6</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H59" s="47">
         <v>7</v>
       </c>
-      <c r="I59" s="49">
+      <c r="I59" s="47">
         <v>8</v>
       </c>
-      <c r="J59" s="49">
+      <c r="J59" s="47">
         <v>9</v>
       </c>
-      <c r="K59" s="49">
-        <v>10</v>
-      </c>
-      <c r="L59" s="49">
+      <c r="K59" s="47">
+        <v>10</v>
+      </c>
+      <c r="L59" s="47">
         <v>11</v>
       </c>
-      <c r="M59" s="49">
+      <c r="M59" s="47">
         <v>12</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R59" s="49">
-        <v>1</v>
-      </c>
-      <c r="S59" s="49">
-        <v>2</v>
-      </c>
-      <c r="T59" s="49">
+      <c r="R59" s="47">
+        <v>1</v>
+      </c>
+      <c r="S59" s="47">
+        <v>2</v>
+      </c>
+      <c r="T59" s="47">
         <v>3</v>
       </c>
-      <c r="U59" s="49">
-        <v>4</v>
-      </c>
-      <c r="V59" s="49">
+      <c r="U59" s="47">
+        <v>4</v>
+      </c>
+      <c r="V59" s="47">
         <v>5</v>
       </c>
-      <c r="W59" s="49">
+      <c r="W59" s="47">
         <v>6</v>
       </c>
-      <c r="X59" s="49">
+      <c r="X59" s="47">
         <v>7</v>
       </c>
-      <c r="Y59" s="49">
+      <c r="Y59" s="47">
         <v>8</v>
       </c>
-      <c r="Z59" s="49">
+      <c r="Z59" s="47">
         <v>9</v>
       </c>
-      <c r="AA59" s="49">
-        <v>10</v>
-      </c>
-      <c r="AB59" s="49">
+      <c r="AA59" s="47">
+        <v>10</v>
+      </c>
+      <c r="AB59" s="47">
         <v>11</v>
       </c>
-      <c r="AC59" s="49">
+      <c r="AC59" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="41">
@@ -3270,7 +3270,7 @@
       <c r="K60" s="41"/>
       <c r="L60" s="41"/>
       <c r="M60" s="41"/>
-      <c r="Q60" s="49" t="s">
+      <c r="Q60" s="47" t="s">
         <v>4</v>
       </c>
       <c r="R60" s="41">
@@ -3311,744 +3311,744 @@
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="52">
+      <c r="B61" s="50">
         <f>B$60</f>
         <v>4</v>
       </c>
-      <c r="C61" s="52">
+      <c r="C61" s="50">
         <f t="shared" ref="C61:M61" si="4">C$60</f>
         <v>4</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E61" s="52">
+      <c r="E61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G61" s="52">
+      <c r="G61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H61" s="52">
+      <c r="H61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I61" s="52">
+      <c r="I61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J61" s="52">
+      <c r="J61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K61" s="52">
+      <c r="K61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L61" s="52">
+      <c r="L61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M61" s="52">
+      <c r="M61" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="49" t="s">
+      <c r="Q61" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="R61" s="52">
+      <c r="R61" s="50">
         <f>R$60</f>
         <v>2</v>
       </c>
-      <c r="S61" s="52">
+      <c r="S61" s="50">
         <f t="shared" ref="S61:AC61" si="5">S$60</f>
         <v>2</v>
       </c>
-      <c r="T61" s="52">
+      <c r="T61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="U61" s="52">
+      <c r="U61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="V61" s="52">
+      <c r="V61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="W61" s="52">
+      <c r="W61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="X61" s="52">
+      <c r="X61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Y61" s="52">
+      <c r="Y61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Z61" s="52">
+      <c r="Z61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AA61" s="52">
+      <c r="AA61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB61" s="52">
+      <c r="AB61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AC61" s="52">
+      <c r="AC61" s="50">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="50">
         <f t="shared" ref="B62:M67" si="6">B$60</f>
         <v>4</v>
       </c>
-      <c r="C62" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="52">
+      <c r="C62" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P62" s="3"/>
-      <c r="Q62" s="49" t="s">
+      <c r="Q62" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R62" s="52">
+      <c r="R62" s="50">
         <f t="shared" ref="R62:AC67" si="7">R$60</f>
         <v>2</v>
       </c>
-      <c r="S62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="U62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AA62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AB62" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AC62" s="52">
+      <c r="S62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB62" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC62" s="50">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C63" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="52">
+      <c r="B63" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C63" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P63" s="3"/>
-      <c r="Q63" s="49" t="s">
+      <c r="Q63" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="U63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AA63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AB63" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AC63" s="52">
+      <c r="R63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB63" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC63" s="50">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C64" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="52">
+      <c r="B64" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C64" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P64" s="4"/>
-      <c r="Q64" s="49" t="s">
+      <c r="Q64" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="U64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AA64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AB64" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AC64" s="52">
+      <c r="R64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB64" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC64" s="50">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C65" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="49" t="s">
+      <c r="B65" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C65" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="U65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AA65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AB65" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AC65" s="52">
+      <c r="R65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB65" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC65" s="50">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A66" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C66" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="U66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AA66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AB66" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AC66" s="52">
+      <c r="A66" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C66" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB66" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC66" s="50">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C67" s="52">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="49" t="s">
+      <c r="B67" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C67" s="50">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="U67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="W67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Y67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AA67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AB67" s="52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AC67" s="52">
+      <c r="R67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="W67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB67" s="50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AC67" s="50">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="D70" s="53" t="s">
+      <c r="D70" s="51" t="s">
         <v>36</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="T70" s="53" t="s">
+      <c r="T70" s="51" t="s">
         <v>35</v>
       </c>
       <c r="U70" t="s">
@@ -4070,84 +4070,84 @@
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="49">
-        <v>1</v>
-      </c>
-      <c r="C75" s="49">
-        <v>2</v>
-      </c>
-      <c r="D75" s="49">
+      <c r="B75" s="47">
+        <v>1</v>
+      </c>
+      <c r="C75" s="47">
+        <v>2</v>
+      </c>
+      <c r="D75" s="47">
         <v>3</v>
       </c>
-      <c r="E75" s="49">
-        <v>4</v>
-      </c>
-      <c r="F75" s="49">
+      <c r="E75" s="47">
+        <v>4</v>
+      </c>
+      <c r="F75" s="47">
         <v>5</v>
       </c>
-      <c r="G75" s="49">
+      <c r="G75" s="47">
         <v>6</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H75" s="47">
         <v>7</v>
       </c>
-      <c r="I75" s="49">
+      <c r="I75" s="47">
         <v>8</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J75" s="47">
         <v>9</v>
       </c>
-      <c r="K75" s="49">
-        <v>10</v>
-      </c>
-      <c r="L75" s="49">
+      <c r="K75" s="47">
+        <v>10</v>
+      </c>
+      <c r="L75" s="47">
         <v>11</v>
       </c>
-      <c r="M75" s="49">
+      <c r="M75" s="47">
         <v>12</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R75" s="49">
-        <v>1</v>
-      </c>
-      <c r="S75" s="49">
-        <v>2</v>
-      </c>
-      <c r="T75" s="49">
+      <c r="R75" s="47">
+        <v>1</v>
+      </c>
+      <c r="S75" s="47">
+        <v>2</v>
+      </c>
+      <c r="T75" s="47">
         <v>3</v>
       </c>
-      <c r="U75" s="49">
-        <v>4</v>
-      </c>
-      <c r="V75" s="49">
+      <c r="U75" s="47">
+        <v>4</v>
+      </c>
+      <c r="V75" s="47">
         <v>5</v>
       </c>
-      <c r="W75" s="49">
+      <c r="W75" s="47">
         <v>6</v>
       </c>
-      <c r="X75" s="49">
+      <c r="X75" s="47">
         <v>7</v>
       </c>
-      <c r="Y75" s="49">
+      <c r="Y75" s="47">
         <v>8</v>
       </c>
-      <c r="Z75" s="49">
+      <c r="Z75" s="47">
         <v>9</v>
       </c>
-      <c r="AA75" s="49">
-        <v>10</v>
-      </c>
-      <c r="AB75" s="49">
+      <c r="AA75" s="47">
+        <v>10</v>
+      </c>
+      <c r="AB75" s="47">
         <v>11</v>
       </c>
-      <c r="AC75" s="49">
+      <c r="AC75" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="41">
@@ -4186,7 +4186,7 @@
       <c r="M76" s="41">
         <v>25</v>
       </c>
-      <c r="Q76" s="49" t="s">
+      <c r="Q76" s="47" t="s">
         <v>4</v>
       </c>
       <c r="R76" s="41">
@@ -4227,732 +4227,732 @@
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="52">
+      <c r="B77" s="50">
         <f>B$76</f>
         <v>24</v>
       </c>
-      <c r="C77" s="52">
+      <c r="C77" s="50">
         <f t="shared" ref="C77:M77" si="8">C$76</f>
         <v>24</v>
       </c>
-      <c r="D77" s="52">
+      <c r="D77" s="50">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="E77" s="52">
+      <c r="E77" s="50">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="F77" s="52">
+      <c r="F77" s="50">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="G77" s="52">
+      <c r="G77" s="50">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="H77" s="52">
+      <c r="H77" s="50">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I77" s="52">
+      <c r="I77" s="50">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="J77" s="52">
+      <c r="J77" s="50">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="K77" s="52">
+      <c r="K77" s="50">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="L77" s="52">
+      <c r="L77" s="50">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="M77" s="52">
+      <c r="M77" s="50">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="Q77" s="49" t="s">
+      <c r="Q77" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="R77" s="52">
+      <c r="R77" s="50">
         <f>R$76</f>
         <v>2</v>
       </c>
-      <c r="S77" s="52">
+      <c r="S77" s="50">
         <f t="shared" ref="S77:AC77" si="9">S$76</f>
         <v>2</v>
       </c>
-      <c r="T77" s="52">
+      <c r="T77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U77" s="52">
+      <c r="U77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V77" s="52">
+      <c r="V77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="W77" s="52">
+      <c r="W77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="X77" s="52">
+      <c r="X77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Y77" s="52">
+      <c r="Y77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z77" s="52">
+      <c r="Z77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AA77" s="52">
+      <c r="AA77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AB77" s="52">
+      <c r="AB77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AC77" s="52">
+      <c r="AC77" s="50">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="52">
+      <c r="B78" s="50">
         <f t="shared" ref="B78:M83" si="10">B$76</f>
         <v>24</v>
       </c>
-      <c r="C78" s="52">
+      <c r="C78" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="50">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E78" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F78" s="52">
+      <c r="F78" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G78" s="52">
+      <c r="G78" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="H78" s="52">
+      <c r="H78" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I78" s="52">
+      <c r="I78" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="J78" s="52">
+      <c r="J78" s="50">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="K78" s="52">
+      <c r="K78" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L78" s="52">
+      <c r="L78" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M78" s="52">
+      <c r="M78" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="P78" s="3"/>
-      <c r="Q78" s="49" t="s">
+      <c r="Q78" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R78" s="52">
+      <c r="R78" s="50">
         <f t="shared" ref="R78:AC83" si="11">R$76</f>
         <v>2</v>
       </c>
-      <c r="S78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="T78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="U78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="V78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="W78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="X78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Y78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB78" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AC78" s="52">
+      <c r="S78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB78" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC78" s="50">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="52">
+      <c r="B79" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="50">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E79" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F79" s="52">
+      <c r="F79" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G79" s="52">
+      <c r="G79" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="H79" s="52">
+      <c r="H79" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I79" s="52">
+      <c r="I79" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="J79" s="52">
+      <c r="J79" s="50">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="K79" s="52">
+      <c r="K79" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L79" s="52">
+      <c r="L79" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M79" s="52">
+      <c r="M79" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="P79" s="3"/>
-      <c r="Q79" s="49" t="s">
+      <c r="Q79" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="R79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="S79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="T79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="U79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="V79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="W79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="X79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Y79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB79" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AC79" s="52">
+      <c r="R79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB79" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC79" s="50">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="52">
+      <c r="B80" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C80" s="52">
+      <c r="C80" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="50">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F80" s="52">
+      <c r="F80" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G80" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="H80" s="52">
+      <c r="H80" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I80" s="52">
+      <c r="I80" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="J80" s="52">
+      <c r="J80" s="50">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="K80" s="52">
+      <c r="K80" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L80" s="52">
+      <c r="L80" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M80" s="52">
+      <c r="M80" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="P80" s="4"/>
-      <c r="Q80" s="49" t="s">
+      <c r="Q80" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="S80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="T80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="U80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="V80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="W80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="X80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Y80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB80" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AC80" s="52">
+      <c r="R80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB80" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC80" s="50">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="52">
+      <c r="B81" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C81" s="52">
+      <c r="C81" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D81" s="52">
+      <c r="D81" s="50">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E81" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F81" s="52">
+      <c r="F81" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G81" s="52">
+      <c r="G81" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="H81" s="52">
+      <c r="H81" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I81" s="52">
+      <c r="I81" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="J81" s="52">
+      <c r="J81" s="50">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="K81" s="52">
+      <c r="K81" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L81" s="52">
+      <c r="L81" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M81" s="52">
+      <c r="M81" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="Q81" s="49" t="s">
+      <c r="Q81" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="R81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="S81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="T81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="U81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="V81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="W81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="X81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Y81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB81" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AC81" s="52">
+      <c r="R81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB81" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC81" s="50">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A82" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="52">
+      <c r="A82" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C82" s="52">
+      <c r="C82" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="50">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F82" s="52">
+      <c r="F82" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G82" s="52">
+      <c r="G82" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="H82" s="52">
+      <c r="H82" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I82" s="52">
+      <c r="I82" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="J82" s="52">
+      <c r="J82" s="50">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="K82" s="52">
+      <c r="K82" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L82" s="52">
+      <c r="L82" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M82" s="52">
+      <c r="M82" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="Q82" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="R82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="S82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="T82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="U82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="V82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="W82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="X82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Y82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB82" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AC82" s="52">
+      <c r="Q82" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB82" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC82" s="50">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="52">
+      <c r="B83" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C83" s="52">
+      <c r="C83" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D83" s="52">
+      <c r="D83" s="50">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="E83" s="52">
+      <c r="E83" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F83" s="52">
+      <c r="F83" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G83" s="52">
+      <c r="G83" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="H83" s="52">
+      <c r="H83" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I83" s="52">
+      <c r="I83" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="J83" s="52">
+      <c r="J83" s="50">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="K83" s="52">
+      <c r="K83" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L83" s="52">
+      <c r="L83" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M83" s="52">
+      <c r="M83" s="50">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="Q83" s="49" t="s">
+      <c r="Q83" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="S83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="T83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="U83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="V83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="W83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="X83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Y83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AB83" s="52">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AC83" s="52">
+      <c r="R83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="S83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="X83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Y83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB83" s="50">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC83" s="50">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
@@ -5762,18 +5762,18 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="U11" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
+      <c r="F11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="U11" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
     </row>
     <row r="17" spans="8:11" ht="21" x14ac:dyDescent="0.5">
       <c r="H17" s="9" t="s">
@@ -5793,6 +5793,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080FEA58812FDF848A00D02526A9BE0F1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b03730733f156bf2adb31be2122151db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38bded79-7fe6-4856-b7ce-255395a57c39" xmlns:ns3="1095b065-d1a3-488d-970b-5ecefe5cf80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be8a7047d1d113139b54425a66ec777d" ns2:_="" ns3:_="">
     <xsd:import namespace="38bded79-7fe6-4856-b7ce-255395a57c39"/>
@@ -6021,16 +6030,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E7A527-3EA2-4B17-94B3-C91BC7C1E815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13062CF7-E055-4C64-9017-58298C92DE4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6047,12 +6055,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E7A527-3EA2-4B17-94B3-C91BC7C1E815}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Normalization.xlsx
+++ b/Normalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HenriLACHAIZE\PycharmProjects\Normalization_Pump_OT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B5F659-ED2A-454E-8BE8-9F79E730A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C56751-B45E-4801-A2BA-0EFB7C03F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4150,18 +4150,12 @@
       <c r="A76" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="41">
-        <v>24</v>
-      </c>
+      <c r="B76" s="41"/>
       <c r="C76" s="41">
         <v>24</v>
       </c>
-      <c r="D76" s="41">
-        <v>30</v>
-      </c>
-      <c r="E76" s="41">
-        <v>50</v>
-      </c>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="41">
         <v>24</v>
       </c>
@@ -4174,18 +4168,10 @@
       <c r="I76" s="41">
         <v>50</v>
       </c>
-      <c r="J76" s="41">
-        <v>20</v>
-      </c>
-      <c r="K76" s="41">
-        <v>50</v>
-      </c>
-      <c r="L76" s="41">
-        <v>25</v>
-      </c>
-      <c r="M76" s="41">
-        <v>25</v>
-      </c>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
       <c r="Q76" s="47" t="s">
         <v>4</v>
       </c>
@@ -4232,7 +4218,7 @@
       </c>
       <c r="B77" s="50">
         <f>B$76</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C77" s="50">
         <f t="shared" ref="C77:M77" si="8">C$76</f>
@@ -4240,11 +4226,11 @@
       </c>
       <c r="D77" s="50">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E77" s="50">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F77" s="50">
         <f t="shared" si="8"/>
@@ -4264,19 +4250,19 @@
       </c>
       <c r="J77" s="50">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K77" s="50">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L77" s="50">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M77" s="50">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="47" t="s">
         <v>5</v>
@@ -4336,51 +4322,51 @@
       </c>
       <c r="B78" s="50">
         <f t="shared" ref="B78:M83" si="10">B$76</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="50">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C78" s="50">
+      <c r="D78" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D78" s="50">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="E78" s="50">
+      <c r="G78" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H78" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I78" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F78" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="G78" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="H78" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="I78" s="50">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
       <c r="J78" s="50">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K78" s="50">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L78" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M78" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="47" t="s">
@@ -4441,51 +4427,51 @@
       </c>
       <c r="B79" s="50">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="50">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C79" s="50">
+      <c r="D79" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D79" s="50">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="E79" s="50">
+      <c r="G79" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H79" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I79" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F79" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="G79" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="H79" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="I79" s="50">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
       <c r="J79" s="50">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K79" s="50">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L79" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M79" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="47" t="s">
@@ -4546,51 +4532,51 @@
       </c>
       <c r="B80" s="50">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C80" s="50">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C80" s="50">
+      <c r="D80" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D80" s="50">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="E80" s="50">
+      <c r="G80" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H80" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I80" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F80" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="G80" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="H80" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="I80" s="50">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
       <c r="J80" s="50">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K80" s="50">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L80" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M80" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="47" t="s">
@@ -4651,51 +4637,51 @@
       </c>
       <c r="B81" s="50">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="50">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C81" s="50">
+      <c r="D81" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D81" s="50">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="E81" s="50">
+      <c r="G81" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H81" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I81" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F81" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="G81" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="H81" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="I81" s="50">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
       <c r="J81" s="50">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K81" s="50">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L81" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M81" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="47" t="s">
         <v>9</v>
@@ -4755,51 +4741,51 @@
       </c>
       <c r="B82" s="50">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="50">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C82" s="50">
+      <c r="D82" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D82" s="50">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="E82" s="50">
+      <c r="G82" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H82" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I82" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F82" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="G82" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="H82" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="I82" s="50">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
       <c r="J82" s="50">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K82" s="50">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L82" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M82" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="47" t="s">
         <v>10</v>
@@ -4859,51 +4845,51 @@
       </c>
       <c r="B83" s="50">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="50">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="C83" s="50">
+      <c r="D83" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="50">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="D83" s="50">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="E83" s="50">
+      <c r="G83" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H83" s="50">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="I83" s="50">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="F83" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="G83" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="H83" s="50">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="I83" s="50">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
       <c r="J83" s="50">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K83" s="50">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L83" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M83" s="50">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="47" t="s">
         <v>11</v>

--- a/Normalization.xlsx
+++ b/Normalization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opentron\PycharmProjects\Normalization__Pump_OT2_NewFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBD4222-EA98-4FCF-B807-93A727EF7F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E10812-A309-4FB8-A7D6-C7965E44DDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantif" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
   <si>
     <t>Plate 1</t>
   </si>
@@ -155,12 +155,15 @@
   <si>
     <t>Normalization</t>
   </si>
+  <si>
+    <t>Volume d'eau dispensé</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +311,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,43 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF54C57B"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9CD69F"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ED7A0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA8D9A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32BC69"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF34BD6A"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -436,7 +426,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,31 +485,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,7 +519,28 @@
     <cellStyle name="Pourcentage 3" xfId="8" xr:uid="{3EB17417-E134-488F-9112-B85BA769B537}"/>
     <cellStyle name="Texte explicatif 2" xfId="6" xr:uid="{32DC8220-6A82-48AB-B5EF-7AC35959F055}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -810,36 +816,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AC87"/>
+  <dimension ref="A2:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.08984375" style="9" customWidth="1"/>
     <col min="18" max="29" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="F2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="F2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
       <c r="O2" s="16"/>
-      <c r="V2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
+      <c r="V2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F3" s="4"/>
@@ -890,7 +896,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1044,452 +1050,644 @@
       <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="28">
-        <v>6.2</v>
-      </c>
-      <c r="C14" s="28">
-        <v>6</v>
-      </c>
-      <c r="D14" s="28">
-        <v>7</v>
-      </c>
-      <c r="E14" s="28">
-        <v>8.4</v>
-      </c>
-      <c r="F14" s="28">
-        <v>14.9</v>
-      </c>
-      <c r="G14" s="28">
-        <v>6.5</v>
-      </c>
-      <c r="H14" s="28">
-        <v>8.1</v>
-      </c>
-      <c r="I14" s="28">
-        <v>11.9</v>
-      </c>
-      <c r="J14" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="K14" s="28">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L14" s="28">
-        <v>7.7</v>
-      </c>
-      <c r="M14" s="28">
-        <v>6</v>
+      <c r="B14" s="34">
+        <v>7</v>
+      </c>
+      <c r="C14" s="34">
+        <v>7</v>
+      </c>
+      <c r="D14" s="34">
+        <v>7</v>
+      </c>
+      <c r="E14" s="34">
+        <v>7</v>
+      </c>
+      <c r="F14" s="34">
+        <v>7</v>
+      </c>
+      <c r="G14" s="34">
+        <v>7</v>
+      </c>
+      <c r="H14" s="34">
+        <v>7</v>
+      </c>
+      <c r="I14" s="34">
+        <v>7</v>
+      </c>
+      <c r="J14" s="34">
+        <v>7</v>
+      </c>
+      <c r="K14" s="34">
+        <v>7</v>
+      </c>
+      <c r="L14" s="34">
+        <v>7</v>
+      </c>
+      <c r="M14" s="34">
+        <v>7</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
+      <c r="R14" s="37">
+        <v>0</v>
+      </c>
+      <c r="S14" s="37">
+        <v>0</v>
+      </c>
+      <c r="T14" s="37">
+        <v>0</v>
+      </c>
+      <c r="U14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB14" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC14" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="28">
-        <v>7.2</v>
-      </c>
-      <c r="C15" s="28">
-        <v>6.7</v>
-      </c>
-      <c r="D15" s="28">
-        <v>7</v>
-      </c>
-      <c r="E15" s="28">
-        <v>9.6</v>
-      </c>
-      <c r="F15" s="28">
-        <v>7.9</v>
-      </c>
-      <c r="G15" s="28">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H15" s="28">
-        <v>8.5</v>
-      </c>
-      <c r="I15" s="28">
-        <v>7.8</v>
-      </c>
-      <c r="J15" s="28">
-        <v>7.1</v>
-      </c>
-      <c r="K15" s="28">
-        <v>6.7</v>
-      </c>
-      <c r="L15" s="28">
-        <v>6.7</v>
-      </c>
-      <c r="M15" s="28">
-        <v>8.4</v>
+      <c r="B15" s="34">
+        <v>7</v>
+      </c>
+      <c r="C15" s="34">
+        <v>7</v>
+      </c>
+      <c r="D15" s="34">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34">
+        <v>7</v>
+      </c>
+      <c r="F15" s="34">
+        <v>7</v>
+      </c>
+      <c r="G15" s="34">
+        <v>7</v>
+      </c>
+      <c r="H15" s="34">
+        <v>7</v>
+      </c>
+      <c r="I15" s="34">
+        <v>7</v>
+      </c>
+      <c r="J15" s="34">
+        <v>7</v>
+      </c>
+      <c r="K15" s="34">
+        <v>7</v>
+      </c>
+      <c r="L15" s="34">
+        <v>7</v>
+      </c>
+      <c r="M15" s="34">
+        <v>7</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
+      <c r="R15" s="37">
+        <v>0</v>
+      </c>
+      <c r="S15" s="37">
+        <v>0</v>
+      </c>
+      <c r="T15" s="37">
+        <v>0</v>
+      </c>
+      <c r="U15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB15" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC15" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="28">
-        <v>8</v>
-      </c>
-      <c r="C16" s="28">
-        <v>6.3</v>
-      </c>
-      <c r="D16" s="28">
-        <v>7.3</v>
-      </c>
-      <c r="E16" s="28">
-        <v>7.8</v>
-      </c>
-      <c r="F16" s="28">
-        <v>7.1</v>
-      </c>
-      <c r="G16" s="28">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H16" s="28">
-        <v>8.9</v>
-      </c>
-      <c r="I16" s="28">
-        <v>7.9</v>
-      </c>
-      <c r="J16" s="28">
-        <v>8</v>
-      </c>
-      <c r="K16" s="28">
-        <v>6.2</v>
-      </c>
-      <c r="L16" s="28">
-        <v>7.6</v>
-      </c>
-      <c r="M16" s="28">
-        <v>8</v>
+      <c r="B16" s="34">
+        <v>7</v>
+      </c>
+      <c r="C16" s="34">
+        <v>7</v>
+      </c>
+      <c r="D16" s="34">
+        <v>7</v>
+      </c>
+      <c r="E16" s="34">
+        <v>7</v>
+      </c>
+      <c r="F16" s="34">
+        <v>7</v>
+      </c>
+      <c r="G16" s="34">
+        <v>7</v>
+      </c>
+      <c r="H16" s="34">
+        <v>7</v>
+      </c>
+      <c r="I16" s="34">
+        <v>7</v>
+      </c>
+      <c r="J16" s="34">
+        <v>7</v>
+      </c>
+      <c r="K16" s="34">
+        <v>7</v>
+      </c>
+      <c r="L16" s="34">
+        <v>7</v>
+      </c>
+      <c r="M16" s="34">
+        <v>7</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
+      <c r="R16" s="37">
+        <v>0</v>
+      </c>
+      <c r="S16" s="37">
+        <v>0</v>
+      </c>
+      <c r="T16" s="37">
+        <v>0</v>
+      </c>
+      <c r="U16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC16" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="28">
-        <v>7.8</v>
-      </c>
-      <c r="C17" s="28">
-        <v>5.7</v>
-      </c>
-      <c r="D17" s="28">
-        <v>7</v>
-      </c>
-      <c r="E17" s="28">
-        <v>7.1</v>
-      </c>
-      <c r="F17" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="G17" s="28">
-        <v>6.3</v>
-      </c>
-      <c r="H17" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="I17" s="28">
-        <v>6</v>
-      </c>
-      <c r="J17" s="28">
-        <v>7.2</v>
-      </c>
-      <c r="K17" s="28">
-        <v>9.1</v>
-      </c>
-      <c r="L17" s="28">
-        <v>8.5</v>
-      </c>
-      <c r="M17" s="28">
-        <v>6.9</v>
+      <c r="B17" s="34">
+        <v>7</v>
+      </c>
+      <c r="C17" s="34">
+        <v>7</v>
+      </c>
+      <c r="D17" s="34">
+        <v>7</v>
+      </c>
+      <c r="E17" s="34">
+        <v>7</v>
+      </c>
+      <c r="F17" s="34">
+        <v>7</v>
+      </c>
+      <c r="G17" s="34">
+        <v>7</v>
+      </c>
+      <c r="H17" s="34">
+        <v>7</v>
+      </c>
+      <c r="I17" s="34">
+        <v>7</v>
+      </c>
+      <c r="J17" s="34">
+        <v>7</v>
+      </c>
+      <c r="K17" s="34">
+        <v>7</v>
+      </c>
+      <c r="L17" s="34">
+        <v>7</v>
+      </c>
+      <c r="M17" s="34">
+        <v>7</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
+      <c r="R17" s="37">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37">
+        <v>0</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB17" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC17" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="28">
-        <v>8</v>
-      </c>
-      <c r="C18" s="28">
-        <v>6.4</v>
-      </c>
-      <c r="D18" s="28">
-        <v>6.1</v>
-      </c>
-      <c r="E18" s="28">
-        <v>7.6</v>
-      </c>
-      <c r="F18" s="28">
-        <v>5.8</v>
-      </c>
-      <c r="G18" s="28">
-        <v>6.4</v>
-      </c>
-      <c r="H18" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="I18" s="28">
-        <v>7</v>
-      </c>
-      <c r="J18" s="28">
-        <v>6.2</v>
-      </c>
-      <c r="K18" s="28">
-        <v>8.4</v>
-      </c>
-      <c r="L18" s="28">
-        <v>7.7</v>
-      </c>
-      <c r="M18" s="28">
-        <v>8.3000000000000007</v>
+      <c r="B18" s="34">
+        <v>7</v>
+      </c>
+      <c r="C18" s="34">
+        <v>7</v>
+      </c>
+      <c r="D18" s="34">
+        <v>7</v>
+      </c>
+      <c r="E18" s="34">
+        <v>7</v>
+      </c>
+      <c r="F18" s="34">
+        <v>7</v>
+      </c>
+      <c r="G18" s="34">
+        <v>7</v>
+      </c>
+      <c r="H18" s="34">
+        <v>7</v>
+      </c>
+      <c r="I18" s="34">
+        <v>7</v>
+      </c>
+      <c r="J18" s="34">
+        <v>7</v>
+      </c>
+      <c r="K18" s="34">
+        <v>7</v>
+      </c>
+      <c r="L18" s="34">
+        <v>7</v>
+      </c>
+      <c r="M18" s="34">
+        <v>7</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
+      <c r="R18" s="37">
+        <v>0</v>
+      </c>
+      <c r="S18" s="37">
+        <v>0</v>
+      </c>
+      <c r="T18" s="37">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC18" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="28">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C19" s="28">
-        <v>8</v>
-      </c>
-      <c r="D19" s="28">
-        <v>7.4</v>
-      </c>
-      <c r="E19" s="28">
-        <v>7.1</v>
-      </c>
-      <c r="F19" s="28">
-        <v>6</v>
-      </c>
-      <c r="G19" s="28">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28">
-        <v>6.4</v>
-      </c>
-      <c r="I19" s="28">
-        <v>8.9</v>
-      </c>
-      <c r="J19" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="K19" s="28">
-        <v>9.6</v>
-      </c>
-      <c r="L19" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="M19" s="28">
-        <v>8.5</v>
+      <c r="B19" s="34">
+        <v>7</v>
+      </c>
+      <c r="C19" s="34">
+        <v>7</v>
+      </c>
+      <c r="D19" s="34">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34">
+        <v>7</v>
+      </c>
+      <c r="F19" s="34">
+        <v>7</v>
+      </c>
+      <c r="G19" s="34">
+        <v>7</v>
+      </c>
+      <c r="H19" s="34">
+        <v>7</v>
+      </c>
+      <c r="I19" s="34">
+        <v>7</v>
+      </c>
+      <c r="J19" s="34">
+        <v>7</v>
+      </c>
+      <c r="K19" s="34">
+        <v>7</v>
+      </c>
+      <c r="L19" s="34">
+        <v>7</v>
+      </c>
+      <c r="M19" s="34">
+        <v>7</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
+      <c r="R19" s="37">
+        <v>0</v>
+      </c>
+      <c r="S19" s="37">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC19" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="28">
-        <v>7.9</v>
-      </c>
-      <c r="C20" s="28">
-        <v>4.3</v>
-      </c>
-      <c r="D20" s="28">
-        <v>9</v>
-      </c>
-      <c r="E20" s="28">
-        <v>7.6</v>
-      </c>
-      <c r="F20" s="28">
-        <v>7.4</v>
-      </c>
-      <c r="G20" s="35">
-        <v>3.5</v>
-      </c>
-      <c r="H20" s="28">
-        <v>5.8</v>
-      </c>
-      <c r="I20" s="28">
-        <v>9.5</v>
-      </c>
-      <c r="J20" s="28">
-        <v>8</v>
-      </c>
-      <c r="K20" s="28">
-        <v>9.1</v>
-      </c>
-      <c r="L20" s="28">
-        <v>7.4</v>
-      </c>
-      <c r="M20" s="28">
-        <v>6.9</v>
+      <c r="B20" s="34">
+        <v>7</v>
+      </c>
+      <c r="C20" s="34">
+        <v>7</v>
+      </c>
+      <c r="D20" s="34">
+        <v>7</v>
+      </c>
+      <c r="E20" s="34">
+        <v>7</v>
+      </c>
+      <c r="F20" s="34">
+        <v>7</v>
+      </c>
+      <c r="G20" s="34">
+        <v>7</v>
+      </c>
+      <c r="H20" s="34">
+        <v>7</v>
+      </c>
+      <c r="I20" s="34">
+        <v>7</v>
+      </c>
+      <c r="J20" s="34">
+        <v>7</v>
+      </c>
+      <c r="K20" s="34">
+        <v>7</v>
+      </c>
+      <c r="L20" s="34">
+        <v>7</v>
+      </c>
+      <c r="M20" s="34">
+        <v>7</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
+      <c r="R20" s="37">
+        <v>0</v>
+      </c>
+      <c r="S20" s="37">
+        <v>0</v>
+      </c>
+      <c r="T20" s="37">
+        <v>0</v>
+      </c>
+      <c r="U20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB20" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC20" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="28">
-        <v>8.1</v>
-      </c>
-      <c r="C21" s="28">
-        <v>11.2</v>
-      </c>
-      <c r="D21" s="28">
-        <v>8.6</v>
-      </c>
-      <c r="E21" s="28">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F21" s="28">
-        <v>8.9</v>
-      </c>
-      <c r="G21" s="36">
-        <v>3.5</v>
-      </c>
-      <c r="H21" s="28">
-        <v>7.4</v>
-      </c>
-      <c r="I21" s="28">
-        <v>10.1</v>
-      </c>
-      <c r="J21" s="28">
-        <v>8.1</v>
-      </c>
-      <c r="K21" s="28">
-        <v>10.6</v>
-      </c>
-      <c r="L21" s="28">
-        <v>8.1</v>
-      </c>
-      <c r="M21" s="28">
-        <v>7.9</v>
+      <c r="B21" s="34">
+        <v>7</v>
+      </c>
+      <c r="C21" s="34">
+        <v>7</v>
+      </c>
+      <c r="D21" s="34">
+        <v>7</v>
+      </c>
+      <c r="E21" s="34">
+        <v>7</v>
+      </c>
+      <c r="F21" s="34">
+        <v>7</v>
+      </c>
+      <c r="G21" s="34">
+        <v>7</v>
+      </c>
+      <c r="H21" s="34">
+        <v>7</v>
+      </c>
+      <c r="I21" s="34">
+        <v>7</v>
+      </c>
+      <c r="J21" s="34">
+        <v>7</v>
+      </c>
+      <c r="K21" s="34">
+        <v>7</v>
+      </c>
+      <c r="L21" s="34">
+        <v>7</v>
+      </c>
+      <c r="M21" s="34">
+        <v>7</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
+      <c r="R21" s="37">
+        <v>0</v>
+      </c>
+      <c r="S21" s="37">
+        <v>0</v>
+      </c>
+      <c r="T21" s="37">
+        <v>0</v>
+      </c>
+      <c r="U21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="V21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="W21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="X21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Y21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="Z21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AA21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB21" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AC21" s="37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C23" s="2" t="s">
@@ -1501,10 +1699,18 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I24">
+        <f>MAX(B14:G21)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="I25">
+        <f>I24*B33/1</f>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -1627,80 +1833,80 @@
       <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="12">
-        <v>10</v>
-      </c>
-      <c r="C33" s="12">
-        <v>10</v>
-      </c>
-      <c r="D33" s="12">
-        <v>10</v>
-      </c>
-      <c r="E33" s="12">
-        <v>10</v>
-      </c>
-      <c r="F33" s="12">
-        <v>10</v>
-      </c>
-      <c r="G33" s="12">
-        <v>10</v>
-      </c>
-      <c r="H33" s="12">
-        <v>10</v>
-      </c>
-      <c r="I33" s="12">
-        <v>10</v>
-      </c>
-      <c r="J33" s="12">
-        <v>10</v>
-      </c>
-      <c r="K33" s="12">
-        <v>10</v>
-      </c>
-      <c r="L33" s="12">
-        <v>10</v>
-      </c>
-      <c r="M33" s="12">
-        <v>10</v>
+      <c r="B33" s="35">
+        <v>3</v>
+      </c>
+      <c r="C33" s="35">
+        <v>3</v>
+      </c>
+      <c r="D33" s="35">
+        <v>3</v>
+      </c>
+      <c r="E33" s="35">
+        <v>3</v>
+      </c>
+      <c r="F33" s="35">
+        <v>3</v>
+      </c>
+      <c r="G33" s="35">
+        <v>3</v>
+      </c>
+      <c r="H33" s="35">
+        <v>3</v>
+      </c>
+      <c r="I33" s="35">
+        <v>3</v>
+      </c>
+      <c r="J33" s="35">
+        <v>3</v>
+      </c>
+      <c r="K33" s="35">
+        <v>3</v>
+      </c>
+      <c r="L33" s="35">
+        <v>3</v>
+      </c>
+      <c r="M33" s="35">
+        <v>3</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="12">
-        <v>10</v>
-      </c>
-      <c r="S33" s="12">
-        <v>10</v>
-      </c>
-      <c r="T33" s="12">
-        <v>10</v>
-      </c>
-      <c r="U33" s="12">
-        <v>10</v>
-      </c>
-      <c r="V33" s="12">
-        <v>10</v>
-      </c>
-      <c r="W33" s="12">
-        <v>10</v>
-      </c>
-      <c r="X33" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="12">
-        <v>10</v>
-      </c>
-      <c r="AA33" s="12">
-        <v>10</v>
-      </c>
-      <c r="AB33" s="12">
-        <v>10</v>
-      </c>
-      <c r="AC33" s="12">
-        <v>10</v>
+      <c r="R33" s="35">
+        <v>0</v>
+      </c>
+      <c r="S33" s="35">
+        <v>0</v>
+      </c>
+      <c r="T33" s="35">
+        <v>0</v>
+      </c>
+      <c r="U33" s="35">
+        <v>4</v>
+      </c>
+      <c r="V33" s="35">
+        <v>4</v>
+      </c>
+      <c r="W33" s="35">
+        <v>4</v>
+      </c>
+      <c r="X33" s="35">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="35">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="35">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="35">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="35">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="35">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
@@ -1708,103 +1914,103 @@
         <v>5</v>
       </c>
       <c r="B34" s="11">
-        <f>B$33</f>
-        <v>10</v>
+        <f t="shared" ref="B34:M40" si="0">B$33</f>
+        <v>3</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:M34" si="0">C$33</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R34" s="11">
         <f>R$33</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" ref="S34:AC34" si="1">S$33</f>
-        <v>10</v>
+        <f t="shared" ref="S34:AC40" si="1">S$33</f>
+        <v>0</v>
       </c>
       <c r="T34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC34" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
@@ -1812,104 +2018,104 @@
         <v>6</v>
       </c>
       <c r="B35" s="11">
-        <f t="shared" ref="B35:M40" si="2">B$33</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="R35" s="11">
-        <f t="shared" ref="R35:AC40" si="3">R$33</f>
-        <v>10</v>
+        <f t="shared" ref="R35:R40" si="2">R$33</f>
+        <v>0</v>
       </c>
       <c r="S35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="V35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="W35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="X35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Y35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Z35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AA35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AB35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AC35" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
@@ -1917,104 +2123,104 @@
         <v>7</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="X36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Y36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Z36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AA36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AB36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AC36" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
@@ -2022,104 +2228,104 @@
         <v>8</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="W37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="X37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Y37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Z37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AA37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AB37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AC37" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
@@ -2127,103 +2333,103 @@
         <v>9</v>
       </c>
       <c r="B38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="V38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="W38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="X38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Y38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Z38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AA38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AB38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AC38" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
@@ -2231,103 +2437,103 @@
         <v>10</v>
       </c>
       <c r="B39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M39" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="11">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M39" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="Q39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="V39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="W39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="X39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Y39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Z39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AA39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AB39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AC39" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
@@ -2335,103 +2541,103 @@
         <v>11</v>
       </c>
       <c r="B40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>M$33</f>
+        <v>3</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="W40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Y40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="Z40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AA40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AB40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="AC40" s="11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>AC$33</f>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
@@ -3299,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" s="27">
         <v>4</v>
@@ -3308,7 +3514,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" s="27">
         <v>4</v>
@@ -3317,13 +3523,13 @@
         <v>4</v>
       </c>
       <c r="J64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M64" s="27">
         <v>1</v>
@@ -3332,40 +3538,40 @@
         <v>4</v>
       </c>
       <c r="R64" s="27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S64" s="27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T64" s="27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
@@ -3373,103 +3579,103 @@
         <v>5</v>
       </c>
       <c r="B65" s="13">
-        <f t="shared" ref="B65:M71" si="4">B$64</f>
+        <f t="shared" ref="B65:M71" si="3">B$64</f>
         <v>4</v>
       </c>
       <c r="C65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L65" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q65" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" ref="R65:AC71" si="5">R$64</f>
-        <v>4</v>
+        <f t="shared" ref="R65:AC71" si="4">R$64</f>
+        <v>0</v>
       </c>
       <c r="S65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="V65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="W65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC65" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.35">
@@ -3477,51 +3683,51 @@
         <v>6</v>
       </c>
       <c r="B66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P66" s="2"/>
@@ -3529,52 +3735,52 @@
         <v>6</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="V66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="W66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC66" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
@@ -3582,51 +3788,51 @@
         <v>7</v>
       </c>
       <c r="B67" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C67" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E67" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F67" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H67" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I67" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K67" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L67" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M67" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P67" s="2"/>
@@ -3634,52 +3840,52 @@
         <v>7</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="V67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="W67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC67" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.35">
@@ -3687,51 +3893,51 @@
         <v>8</v>
       </c>
       <c r="B68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K68" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L68" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M68" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P68" s="3"/>
@@ -3739,52 +3945,52 @@
         <v>8</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="V68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="W68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC68" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.35">
@@ -3792,103 +3998,103 @@
         <v>9</v>
       </c>
       <c r="B69" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C69" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E69" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F69" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H69" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I69" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K69" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L69" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M69" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q69" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="V69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="W69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC69" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
@@ -3896,103 +4102,103 @@
         <v>10</v>
       </c>
       <c r="B70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L70" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M70" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="V70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="W70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC70" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.35">
@@ -4000,103 +4206,103 @@
         <v>11</v>
       </c>
       <c r="B71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M71" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q71" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="V71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="W71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="X71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Z71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AA71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AB71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC71" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:29" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -4106,7 +4312,7 @@
       <c r="E74" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="26"/>
+      <c r="F74"/>
       <c r="O74" s="19"/>
       <c r="T74" s="25" t="s">
         <v>34</v>
@@ -4217,31 +4423,31 @@
         <v>26</v>
       </c>
       <c r="D80" s="7">
+        <v>26</v>
+      </c>
+      <c r="E80" s="7">
+        <v>26</v>
+      </c>
+      <c r="F80" s="7">
+        <v>26</v>
+      </c>
+      <c r="G80" s="7">
+        <v>26</v>
+      </c>
+      <c r="H80" s="7">
+        <v>26</v>
+      </c>
+      <c r="I80" s="7">
+        <v>26</v>
+      </c>
+      <c r="J80" s="7">
+        <v>26</v>
+      </c>
+      <c r="K80" s="7">
         <v>99</v>
       </c>
-      <c r="E80" s="7">
-        <v>26</v>
-      </c>
-      <c r="F80" s="7">
-        <v>26</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="L80" s="7">
         <v>99</v>
-      </c>
-      <c r="H80" s="7">
-        <v>26</v>
-      </c>
-      <c r="I80" s="7">
-        <v>26</v>
-      </c>
-      <c r="J80" s="7">
-        <v>99</v>
-      </c>
-      <c r="K80" s="7">
-        <v>26</v>
-      </c>
-      <c r="L80" s="7">
-        <v>26</v>
       </c>
       <c r="M80" s="7">
         <v>99</v>
@@ -4259,13 +4465,13 @@
         <v>26</v>
       </c>
       <c r="U80" s="7">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="V80" s="7">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="W80" s="7">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="X80" s="7">
         <v>26</v>
@@ -4291,102 +4497,102 @@
         <v>5</v>
       </c>
       <c r="B81" s="13">
-        <f>B$80</f>
+        <f t="shared" ref="B81:M87" si="5">B$80</f>
         <v>26</v>
       </c>
       <c r="C81" s="13">
-        <f t="shared" ref="B81:M87" si="6">C$80</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E81" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F81" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G81" s="13">
+        <f>G$80</f>
+        <v>26</v>
+      </c>
+      <c r="H81" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I81" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J81" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K81" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E81" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="F81" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G81" s="13">
-        <f t="shared" si="6"/>
+      <c r="L81" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H81" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I81" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J81" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="K81" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L81" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
       <c r="M81" s="13">
-        <f t="shared" si="6"/>
+        <f>M$80</f>
         <v>99</v>
       </c>
       <c r="Q81" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R81" s="13">
-        <f t="shared" ref="R81:AC87" si="7">R$80</f>
+        <f t="shared" ref="R81:AC87" si="6">R$80</f>
         <v>26</v>
       </c>
       <c r="S81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="T81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="U81" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="V81" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="W81" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f>W$80</f>
+        <v>99</v>
       </c>
       <c r="X81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Y81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Z81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AA81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AB81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AC81" s="13">
-        <f t="shared" si="7"/>
+        <f>AC$80</f>
         <v>26</v>
       </c>
     </row>
@@ -4395,51 +4601,51 @@
         <v>6</v>
       </c>
       <c r="B82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E82" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F82" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G82" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H82" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I82" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J82" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K82" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E82" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="F82" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G82" s="13">
-        <f t="shared" si="6"/>
+      <c r="L82" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H82" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I82" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J82" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="K82" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L82" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
       <c r="M82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="P82" s="2"/>
@@ -4447,51 +4653,51 @@
         <v>6</v>
       </c>
       <c r="R82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="S82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="T82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="U82" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="V82" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="W82" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="X82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Y82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Z82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AA82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AB82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AC82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -4500,51 +4706,51 @@
         <v>7</v>
       </c>
       <c r="B83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E83" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F83" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G83" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H83" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I83" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J83" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K83" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E83" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="F83" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G83" s="13">
-        <f t="shared" si="6"/>
+      <c r="L83" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H83" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I83" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J83" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="K83" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L83" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
       <c r="M83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="P83" s="2"/>
@@ -4552,51 +4758,51 @@
         <v>7</v>
       </c>
       <c r="R83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="S83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="T83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="U83" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="V83" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="W83" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="X83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Y83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Z83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AA83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AB83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AC83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -4605,51 +4811,51 @@
         <v>8</v>
       </c>
       <c r="B84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E84" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G84" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H84" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I84" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J84" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K84" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E84" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="F84" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G84" s="13">
-        <f t="shared" si="6"/>
+      <c r="L84" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H84" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I84" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J84" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="K84" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L84" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
       <c r="M84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="P84" s="3"/>
@@ -4657,51 +4863,51 @@
         <v>8</v>
       </c>
       <c r="R84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="S84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="T84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="U84" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="V84" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="W84" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="X84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Y84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Z84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AA84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AB84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AC84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -4710,102 +4916,102 @@
         <v>9</v>
       </c>
       <c r="B85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E85" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G85" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H85" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I85" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J85" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K85" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E85" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="F85" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G85" s="13">
-        <f t="shared" si="6"/>
+      <c r="L85" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H85" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I85" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J85" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="K85" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L85" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
       <c r="M85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="Q85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="S85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="T85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="U85" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="V85" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="W85" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="X85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Y85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Z85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AA85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AB85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AC85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -4814,102 +5020,102 @@
         <v>10</v>
       </c>
       <c r="B86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E86" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G86" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H86" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I86" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J86" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K86" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E86" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="F86" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G86" s="13">
-        <f t="shared" si="6"/>
+      <c r="L86" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H86" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I86" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J86" s="13">
-        <f t="shared" si="6"/>
+      <c r="M86" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="K86" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L86" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="M86" s="13">
+      <c r="Q86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R86" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="S86" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="T86" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="U86" s="13">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="Q86" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R86" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="S86" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="T86" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="U86" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
       <c r="V86" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="W86" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="X86" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Y86" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="Z86" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AA86" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AB86" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="AC86" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -4918,103 +5124,1027 @@
         <v>11</v>
       </c>
       <c r="B87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="E87" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="F87" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G87" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H87" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I87" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="J87" s="13">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K87" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="E87" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="F87" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G87" s="13">
-        <f t="shared" si="6"/>
+      <c r="L87" s="13">
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="H87" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I87" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="J87" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="K87" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L87" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
       <c r="M87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="Q87" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="S87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="T87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="U87" s="13">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="V87" s="13">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="W87" s="13">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="X87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="Y87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="Z87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AA87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AB87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AC87" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O92" s="33"/>
+    </row>
+    <row r="93" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O93" s="29"/>
+    </row>
+    <row r="94" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="30">
+        <v>1</v>
+      </c>
+      <c r="C94" s="30">
+        <v>2</v>
+      </c>
+      <c r="D94" s="30">
+        <v>3</v>
+      </c>
+      <c r="E94" s="30">
+        <v>4</v>
+      </c>
+      <c r="F94" s="30">
+        <v>5</v>
+      </c>
+      <c r="G94" s="30">
+        <v>6</v>
+      </c>
+      <c r="H94" s="30">
+        <v>7</v>
+      </c>
+      <c r="I94" s="30">
+        <v>8</v>
+      </c>
+      <c r="J94" s="30">
+        <v>9</v>
+      </c>
+      <c r="K94" s="30">
+        <v>10</v>
+      </c>
+      <c r="L94" s="30">
+        <v>11</v>
+      </c>
+      <c r="M94" s="30">
+        <v>12</v>
+      </c>
+      <c r="O94" s="29"/>
+      <c r="R94" s="30">
+        <v>1</v>
+      </c>
+      <c r="S94" s="30">
+        <v>2</v>
+      </c>
+      <c r="T94" s="30">
+        <v>3</v>
+      </c>
+      <c r="U94" s="30">
+        <v>4</v>
+      </c>
+      <c r="V94" s="30">
+        <v>5</v>
+      </c>
+      <c r="W94" s="30">
+        <v>6</v>
+      </c>
+      <c r="X94" s="30">
+        <v>7</v>
+      </c>
+      <c r="Y94" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA94" s="30">
+        <v>10</v>
+      </c>
+      <c r="AB94" s="30">
+        <v>11</v>
+      </c>
+      <c r="AC94" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="31">
+        <f>B14*B33/B46</f>
+        <v>21</v>
+      </c>
+      <c r="C95" s="31">
+        <f t="shared" ref="C95:M95" si="7">C14*C33/C46</f>
+        <v>21</v>
+      </c>
+      <c r="D95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="S87" s="13">
+        <v>21</v>
+      </c>
+      <c r="E95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="T87" s="13">
+        <v>21</v>
+      </c>
+      <c r="F95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="U87" s="13">
+        <v>21</v>
+      </c>
+      <c r="G95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="V87" s="13">
+        <v>21</v>
+      </c>
+      <c r="H95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="W87" s="13">
+        <v>21</v>
+      </c>
+      <c r="I95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="X87" s="13">
+        <v>21</v>
+      </c>
+      <c r="J95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="Y87" s="13">
+        <v>21</v>
+      </c>
+      <c r="K95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="Z87" s="13">
+        <v>21</v>
+      </c>
+      <c r="L95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="AA87" s="13">
+        <v>21</v>
+      </c>
+      <c r="M95" s="31">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="AB87" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="AC87" s="13">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="O95" s="29"/>
+      <c r="Q95" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="R95" s="31">
+        <f>R14*R33/R46</f>
+        <v>0</v>
+      </c>
+      <c r="S95" s="31">
+        <f t="shared" ref="S95:AC95" si="8">S14*S33/S46</f>
+        <v>0</v>
+      </c>
+      <c r="T95" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="V95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="X95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Y95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Z95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AA95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AB95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AC95" s="31">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="31">
+        <f t="shared" ref="B96:M101" si="9">B15*B34/B47</f>
+        <v>21</v>
+      </c>
+      <c r="C96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="D96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="G96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="H96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="I96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="J96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M96" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="O96" s="29"/>
+      <c r="Q96" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="R96" s="31">
+        <f t="shared" ref="R96:AC96" si="10">R15*R34/R47</f>
+        <v>0</v>
+      </c>
+      <c r="S96" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="V96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="W96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="X96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Y96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Z96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AA96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AB96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AC96" s="31">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="C97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="D97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="G97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="H97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="I97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="J97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M97" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="O97" s="29"/>
+      <c r="Q97" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R97" s="31">
+        <f t="shared" ref="R97:AC97" si="11">R16*R35/R48</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T97" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="V97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="W97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="X97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="Y97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="Z97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AA97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AB97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AC97" s="31">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="C98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="D98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="G98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="H98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="I98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="J98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M98" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="O98" s="29"/>
+      <c r="Q98" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="R98" s="31">
+        <f t="shared" ref="R98:AC98" si="12">R17*R36/R49</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="W98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="X98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Y98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Z98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AA98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AB98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AC98" s="31">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="C99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="D99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="G99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="H99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="I99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="J99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M99" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="O99" s="29"/>
+      <c r="Q99" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="R99" s="31">
+        <f t="shared" ref="R99:AC99" si="13">R18*R37/R50</f>
+        <v>0</v>
+      </c>
+      <c r="S99" s="31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="V99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="W99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="X99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Y99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Z99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AA99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AB99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AC99" s="31">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="C100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="D100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="G100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="H100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="I100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="J100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M100" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="O100" s="29"/>
+      <c r="Q100" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R100" s="31">
+        <f t="shared" ref="R100:AC100" si="14">R19*R38/R51</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="V100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="W100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="X100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Y100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Z100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AA100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AB100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AC100" s="31">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="31">
+        <f>B20*B39/B52</f>
+        <v>21</v>
+      </c>
+      <c r="C101" s="31">
+        <f>C20*C39/C52</f>
+        <v>21</v>
+      </c>
+      <c r="D101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="F101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="G101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="H101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="I101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="J101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="M101" s="31">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="O101" s="29"/>
+      <c r="Q101" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="31">
+        <f t="shared" ref="R101:AC101" si="15">R20*R39/R52</f>
+        <v>0</v>
+      </c>
+      <c r="S101" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="V101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="W101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="X101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="Y101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="Z101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AA101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AB101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AC101" s="31">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="31">
+        <f>B21*B40/B53</f>
+        <v>21</v>
+      </c>
+      <c r="C102" s="31">
+        <f>C21*C40/C53</f>
+        <v>21</v>
+      </c>
+      <c r="D102" s="31">
+        <f t="shared" ref="D102:M102" si="16">D21*D40/D53</f>
+        <v>21</v>
+      </c>
+      <c r="E102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="F102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="G102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="H102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="J102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="K102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="L102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="M102" s="31">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="O102" s="29"/>
+      <c r="Q102" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102" s="31">
+        <f>R21*R40/R53</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="31">
+        <f t="shared" ref="S102:AC102" si="17">S21*S40/S53</f>
+        <v>0</v>
+      </c>
+      <c r="T102" s="31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="V102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="W102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="X102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="Y102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="Z102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AA102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AB102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AC102" s="31">
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5023,6 +6153,16 @@
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="B95:M102">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+      <formula>140</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R95:AC102">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>140</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -5090,6 +6230,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080FEA58812FDF848A00D02526A9BE0F1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b03730733f156bf2adb31be2122151db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38bded79-7fe6-4856-b7ce-255395a57c39" xmlns:ns3="1095b065-d1a3-488d-970b-5ecefe5cf80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be8a7047d1d113139b54425a66ec777d" ns2:_="" ns3:_="">
     <xsd:import namespace="38bded79-7fe6-4856-b7ce-255395a57c39"/>
@@ -5318,16 +6467,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E7A527-3EA2-4B17-94B3-C91BC7C1E815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13062CF7-E055-4C64-9017-58298C92DE4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5344,12 +6492,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E7A527-3EA2-4B17-94B3-C91BC7C1E815}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Normalization.xlsx
+++ b/Normalization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opentron\PycharmProjects\Normalization__Pump_OT2_NewFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HenriLACHAIZE\PycharmProjects\Normalization_Pump_OT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E10812-A309-4FB8-A7D6-C7965E44DDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0F7C33-AD7D-4E3F-A1D9-B9E0105E85B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantif" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>Plate 1</t>
   </si>
@@ -155,15 +155,12 @@
   <si>
     <t>Normalization</t>
   </si>
-  <si>
-    <t>Volume d'eau dispensé</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,31 +308,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,7 +360,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF54C57B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CD69F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ED7A0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA8D9A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF32BC69"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34BD6A"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -426,7 +436,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,27 +495,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -519,28 +534,7 @@
     <cellStyle name="Pourcentage 3" xfId="8" xr:uid="{3EB17417-E134-488F-9112-B85BA769B537}"/>
     <cellStyle name="Texte explicatif 2" xfId="6" xr:uid="{32DC8220-6A82-48AB-B5EF-7AC35959F055}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -816,18 +810,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AC102"/>
+  <dimension ref="A2:AC87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.08984375" style="9" customWidth="1"/>
     <col min="18" max="29" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -896,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1050,644 +1044,452 @@
       <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="28">
+        <v>6.2</v>
+      </c>
+      <c r="C14" s="28">
+        <v>6</v>
+      </c>
+      <c r="D14" s="28">
         <v>7</v>
       </c>
-      <c r="C14" s="34">
-        <v>7</v>
-      </c>
-      <c r="D14" s="34">
-        <v>7</v>
-      </c>
-      <c r="E14" s="34">
-        <v>7</v>
-      </c>
-      <c r="F14" s="34">
-        <v>7</v>
-      </c>
-      <c r="G14" s="34">
-        <v>7</v>
-      </c>
-      <c r="H14" s="34">
-        <v>7</v>
-      </c>
-      <c r="I14" s="34">
-        <v>7</v>
-      </c>
-      <c r="J14" s="34">
-        <v>7</v>
-      </c>
-      <c r="K14" s="34">
-        <v>7</v>
-      </c>
-      <c r="L14" s="34">
-        <v>7</v>
-      </c>
-      <c r="M14" s="34">
-        <v>7</v>
+      <c r="E14" s="28">
+        <v>8.4</v>
+      </c>
+      <c r="F14" s="28">
+        <v>14.9</v>
+      </c>
+      <c r="G14" s="28">
+        <v>6.5</v>
+      </c>
+      <c r="H14" s="28">
+        <v>8.1</v>
+      </c>
+      <c r="I14" s="28">
+        <v>11.9</v>
+      </c>
+      <c r="J14" s="28">
+        <v>6.8</v>
+      </c>
+      <c r="K14" s="28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L14" s="28">
+        <v>7.7</v>
+      </c>
+      <c r="M14" s="28">
+        <v>6</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="37">
-        <v>0</v>
-      </c>
-      <c r="S14" s="37">
-        <v>0</v>
-      </c>
-      <c r="T14" s="37">
-        <v>0</v>
-      </c>
-      <c r="U14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC14" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="28">
+        <v>7.2</v>
+      </c>
+      <c r="C15" s="28">
+        <v>6.7</v>
+      </c>
+      <c r="D15" s="28">
         <v>7</v>
       </c>
-      <c r="C15" s="34">
-        <v>7</v>
-      </c>
-      <c r="D15" s="34">
-        <v>7</v>
-      </c>
-      <c r="E15" s="34">
-        <v>7</v>
-      </c>
-      <c r="F15" s="34">
-        <v>7</v>
-      </c>
-      <c r="G15" s="34">
-        <v>7</v>
-      </c>
-      <c r="H15" s="34">
-        <v>7</v>
-      </c>
-      <c r="I15" s="34">
-        <v>7</v>
-      </c>
-      <c r="J15" s="34">
-        <v>7</v>
-      </c>
-      <c r="K15" s="34">
-        <v>7</v>
-      </c>
-      <c r="L15" s="34">
-        <v>7</v>
-      </c>
-      <c r="M15" s="34">
-        <v>7</v>
+      <c r="E15" s="28">
+        <v>9.6</v>
+      </c>
+      <c r="F15" s="28">
+        <v>7.9</v>
+      </c>
+      <c r="G15" s="28">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H15" s="28">
+        <v>8.5</v>
+      </c>
+      <c r="I15" s="28">
+        <v>7.8</v>
+      </c>
+      <c r="J15" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="K15" s="28">
+        <v>6.7</v>
+      </c>
+      <c r="L15" s="28">
+        <v>6.7</v>
+      </c>
+      <c r="M15" s="28">
+        <v>8.4</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="37">
-        <v>0</v>
-      </c>
-      <c r="S15" s="37">
-        <v>0</v>
-      </c>
-      <c r="T15" s="37">
-        <v>0</v>
-      </c>
-      <c r="U15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC15" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="34">
-        <v>7</v>
-      </c>
-      <c r="C16" s="34">
-        <v>7</v>
-      </c>
-      <c r="D16" s="34">
-        <v>7</v>
-      </c>
-      <c r="E16" s="34">
-        <v>7</v>
-      </c>
-      <c r="F16" s="34">
-        <v>7</v>
-      </c>
-      <c r="G16" s="34">
-        <v>7</v>
-      </c>
-      <c r="H16" s="34">
-        <v>7</v>
-      </c>
-      <c r="I16" s="34">
-        <v>7</v>
-      </c>
-      <c r="J16" s="34">
-        <v>7</v>
-      </c>
-      <c r="K16" s="34">
-        <v>7</v>
-      </c>
-      <c r="L16" s="34">
-        <v>7</v>
-      </c>
-      <c r="M16" s="34">
-        <v>7</v>
+      <c r="B16" s="28">
+        <v>8</v>
+      </c>
+      <c r="C16" s="28">
+        <v>6.3</v>
+      </c>
+      <c r="D16" s="28">
+        <v>7.3</v>
+      </c>
+      <c r="E16" s="28">
+        <v>7.8</v>
+      </c>
+      <c r="F16" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="G16" s="28">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H16" s="28">
+        <v>8.9</v>
+      </c>
+      <c r="I16" s="28">
+        <v>7.9</v>
+      </c>
+      <c r="J16" s="28">
+        <v>8</v>
+      </c>
+      <c r="K16" s="28">
+        <v>6.2</v>
+      </c>
+      <c r="L16" s="28">
+        <v>7.6</v>
+      </c>
+      <c r="M16" s="28">
+        <v>8</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="37">
-        <v>0</v>
-      </c>
-      <c r="S16" s="37">
-        <v>0</v>
-      </c>
-      <c r="T16" s="37">
-        <v>0</v>
-      </c>
-      <c r="U16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC16" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="28">
+        <v>7.8</v>
+      </c>
+      <c r="C17" s="28">
+        <v>5.7</v>
+      </c>
+      <c r="D17" s="28">
         <v>7</v>
       </c>
-      <c r="C17" s="34">
-        <v>7</v>
-      </c>
-      <c r="D17" s="34">
-        <v>7</v>
-      </c>
-      <c r="E17" s="34">
-        <v>7</v>
-      </c>
-      <c r="F17" s="34">
-        <v>7</v>
-      </c>
-      <c r="G17" s="34">
-        <v>7</v>
-      </c>
-      <c r="H17" s="34">
-        <v>7</v>
-      </c>
-      <c r="I17" s="34">
-        <v>7</v>
-      </c>
-      <c r="J17" s="34">
-        <v>7</v>
-      </c>
-      <c r="K17" s="34">
-        <v>7</v>
-      </c>
-      <c r="L17" s="34">
-        <v>7</v>
-      </c>
-      <c r="M17" s="34">
-        <v>7</v>
+      <c r="E17" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="F17" s="28">
+        <v>6.8</v>
+      </c>
+      <c r="G17" s="28">
+        <v>6.3</v>
+      </c>
+      <c r="H17" s="28">
+        <v>6.8</v>
+      </c>
+      <c r="I17" s="28">
+        <v>6</v>
+      </c>
+      <c r="J17" s="28">
+        <v>7.2</v>
+      </c>
+      <c r="K17" s="28">
+        <v>9.1</v>
+      </c>
+      <c r="L17" s="28">
+        <v>8.5</v>
+      </c>
+      <c r="M17" s="28">
+        <v>6.9</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="37">
-        <v>0</v>
-      </c>
-      <c r="S17" s="37">
-        <v>0</v>
-      </c>
-      <c r="T17" s="37">
-        <v>0</v>
-      </c>
-      <c r="U17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC17" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R17" s="30"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="28">
+        <v>8</v>
+      </c>
+      <c r="C18" s="28">
+        <v>6.4</v>
+      </c>
+      <c r="D18" s="28">
+        <v>6.1</v>
+      </c>
+      <c r="E18" s="28">
+        <v>7.6</v>
+      </c>
+      <c r="F18" s="28">
+        <v>5.8</v>
+      </c>
+      <c r="G18" s="28">
+        <v>6.4</v>
+      </c>
+      <c r="H18" s="28">
+        <v>6.8</v>
+      </c>
+      <c r="I18" s="28">
         <v>7</v>
       </c>
-      <c r="C18" s="34">
-        <v>7</v>
-      </c>
-      <c r="D18" s="34">
-        <v>7</v>
-      </c>
-      <c r="E18" s="34">
-        <v>7</v>
-      </c>
-      <c r="F18" s="34">
-        <v>7</v>
-      </c>
-      <c r="G18" s="34">
-        <v>7</v>
-      </c>
-      <c r="H18" s="34">
-        <v>7</v>
-      </c>
-      <c r="I18" s="34">
-        <v>7</v>
-      </c>
-      <c r="J18" s="34">
-        <v>7</v>
-      </c>
-      <c r="K18" s="34">
-        <v>7</v>
-      </c>
-      <c r="L18" s="34">
-        <v>7</v>
-      </c>
-      <c r="M18" s="34">
-        <v>7</v>
+      <c r="J18" s="28">
+        <v>6.2</v>
+      </c>
+      <c r="K18" s="28">
+        <v>8.4</v>
+      </c>
+      <c r="L18" s="28">
+        <v>7.7</v>
+      </c>
+      <c r="M18" s="28">
+        <v>8.3000000000000007</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="37">
-        <v>0</v>
-      </c>
-      <c r="S18" s="37">
-        <v>0</v>
-      </c>
-      <c r="T18" s="37">
-        <v>0</v>
-      </c>
-      <c r="U18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC18" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="34">
-        <v>7</v>
-      </c>
-      <c r="C19" s="34">
-        <v>7</v>
-      </c>
-      <c r="D19" s="34">
-        <v>7</v>
-      </c>
-      <c r="E19" s="34">
-        <v>7</v>
-      </c>
-      <c r="F19" s="34">
-        <v>7</v>
-      </c>
-      <c r="G19" s="34">
-        <v>7</v>
-      </c>
-      <c r="H19" s="34">
-        <v>7</v>
-      </c>
-      <c r="I19" s="34">
-        <v>7</v>
-      </c>
-      <c r="J19" s="34">
-        <v>7</v>
-      </c>
-      <c r="K19" s="34">
-        <v>7</v>
-      </c>
-      <c r="L19" s="34">
-        <v>7</v>
-      </c>
-      <c r="M19" s="34">
-        <v>7</v>
+      <c r="B19" s="28">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C19" s="28">
+        <v>8</v>
+      </c>
+      <c r="D19" s="28">
+        <v>7.4</v>
+      </c>
+      <c r="E19" s="28">
+        <v>7.1</v>
+      </c>
+      <c r="F19" s="28">
+        <v>6</v>
+      </c>
+      <c r="G19" s="28">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28">
+        <v>6.4</v>
+      </c>
+      <c r="I19" s="28">
+        <v>8.9</v>
+      </c>
+      <c r="J19" s="28">
+        <v>6.8</v>
+      </c>
+      <c r="K19" s="28">
+        <v>9.6</v>
+      </c>
+      <c r="L19" s="28">
+        <v>6.8</v>
+      </c>
+      <c r="M19" s="28">
+        <v>8.5</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="37">
-        <v>0</v>
-      </c>
-      <c r="S19" s="37">
-        <v>0</v>
-      </c>
-      <c r="T19" s="37">
-        <v>0</v>
-      </c>
-      <c r="U19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC19" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="34">
-        <v>7</v>
-      </c>
-      <c r="C20" s="34">
-        <v>7</v>
-      </c>
-      <c r="D20" s="34">
-        <v>7</v>
-      </c>
-      <c r="E20" s="34">
-        <v>7</v>
-      </c>
-      <c r="F20" s="34">
-        <v>7</v>
+      <c r="B20" s="28">
+        <v>7.9</v>
+      </c>
+      <c r="C20" s="28">
+        <v>4.3</v>
+      </c>
+      <c r="D20" s="28">
+        <v>9</v>
+      </c>
+      <c r="E20" s="28">
+        <v>7.6</v>
+      </c>
+      <c r="F20" s="28">
+        <v>7.4</v>
       </c>
       <c r="G20" s="34">
-        <v>7</v>
-      </c>
-      <c r="H20" s="34">
-        <v>7</v>
-      </c>
-      <c r="I20" s="34">
-        <v>7</v>
-      </c>
-      <c r="J20" s="34">
-        <v>7</v>
-      </c>
-      <c r="K20" s="34">
-        <v>7</v>
-      </c>
-      <c r="L20" s="34">
-        <v>7</v>
-      </c>
-      <c r="M20" s="34">
-        <v>7</v>
+        <v>3.5</v>
+      </c>
+      <c r="H20" s="28">
+        <v>5.8</v>
+      </c>
+      <c r="I20" s="28">
+        <v>9.5</v>
+      </c>
+      <c r="J20" s="28">
+        <v>8</v>
+      </c>
+      <c r="K20" s="28">
+        <v>9.1</v>
+      </c>
+      <c r="L20" s="28">
+        <v>7.4</v>
+      </c>
+      <c r="M20" s="28">
+        <v>6.9</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="37">
-        <v>0</v>
-      </c>
-      <c r="S20" s="37">
-        <v>0</v>
-      </c>
-      <c r="T20" s="37">
-        <v>0</v>
-      </c>
-      <c r="U20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC20" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="34">
-        <v>7</v>
-      </c>
-      <c r="C21" s="34">
-        <v>7</v>
-      </c>
-      <c r="D21" s="34">
-        <v>7</v>
-      </c>
-      <c r="E21" s="34">
-        <v>7</v>
-      </c>
-      <c r="F21" s="34">
-        <v>7</v>
-      </c>
-      <c r="G21" s="34">
-        <v>7</v>
-      </c>
-      <c r="H21" s="34">
-        <v>7</v>
-      </c>
-      <c r="I21" s="34">
-        <v>7</v>
-      </c>
-      <c r="J21" s="34">
-        <v>7</v>
-      </c>
-      <c r="K21" s="34">
-        <v>7</v>
-      </c>
-      <c r="L21" s="34">
-        <v>7</v>
-      </c>
-      <c r="M21" s="34">
-        <v>7</v>
+      <c r="B21" s="28">
+        <v>8.1</v>
+      </c>
+      <c r="C21" s="28">
+        <v>11.2</v>
+      </c>
+      <c r="D21" s="28">
+        <v>8.6</v>
+      </c>
+      <c r="E21" s="28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F21" s="28">
+        <v>8.9</v>
+      </c>
+      <c r="G21" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="H21" s="28">
+        <v>7.4</v>
+      </c>
+      <c r="I21" s="28">
+        <v>10.1</v>
+      </c>
+      <c r="J21" s="28">
+        <v>8.1</v>
+      </c>
+      <c r="K21" s="28">
+        <v>10.6</v>
+      </c>
+      <c r="L21" s="28">
+        <v>8.1</v>
+      </c>
+      <c r="M21" s="28">
+        <v>7.9</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="37">
-        <v>0</v>
-      </c>
-      <c r="S21" s="37">
-        <v>0</v>
-      </c>
-      <c r="T21" s="37">
-        <v>0</v>
-      </c>
-      <c r="U21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC21" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="R21" s="32"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
     </row>
     <row r="23" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C23" s="2" t="s">
@@ -1699,18 +1501,10 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I24">
-        <f>MAX(B14:G21)</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="I25">
-        <f>I24*B33/1</f>
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -1833,80 +1627,80 @@
       <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="35">
-        <v>3</v>
-      </c>
-      <c r="C33" s="35">
-        <v>3</v>
-      </c>
-      <c r="D33" s="35">
-        <v>3</v>
-      </c>
-      <c r="E33" s="35">
-        <v>3</v>
-      </c>
-      <c r="F33" s="35">
-        <v>3</v>
-      </c>
-      <c r="G33" s="35">
-        <v>3</v>
-      </c>
-      <c r="H33" s="35">
-        <v>3</v>
-      </c>
-      <c r="I33" s="35">
-        <v>3</v>
-      </c>
-      <c r="J33" s="35">
-        <v>3</v>
-      </c>
-      <c r="K33" s="35">
-        <v>3</v>
-      </c>
-      <c r="L33" s="35">
-        <v>3</v>
-      </c>
-      <c r="M33" s="35">
-        <v>3</v>
+      <c r="B33" s="12">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12">
+        <v>10</v>
+      </c>
+      <c r="F33" s="12">
+        <v>10</v>
+      </c>
+      <c r="G33" s="12">
+        <v>10</v>
+      </c>
+      <c r="H33" s="12">
+        <v>10</v>
+      </c>
+      <c r="I33" s="12">
+        <v>10</v>
+      </c>
+      <c r="J33" s="12">
+        <v>10</v>
+      </c>
+      <c r="K33" s="12">
+        <v>10</v>
+      </c>
+      <c r="L33" s="12">
+        <v>10</v>
+      </c>
+      <c r="M33" s="12">
+        <v>10</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="35">
-        <v>0</v>
-      </c>
-      <c r="S33" s="35">
-        <v>0</v>
-      </c>
-      <c r="T33" s="35">
-        <v>0</v>
-      </c>
-      <c r="U33" s="35">
-        <v>4</v>
-      </c>
-      <c r="V33" s="35">
-        <v>4</v>
-      </c>
-      <c r="W33" s="35">
-        <v>4</v>
-      </c>
-      <c r="X33" s="35">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="35">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="35">
-        <v>4</v>
-      </c>
-      <c r="AB33" s="35">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="35">
-        <v>4</v>
+      <c r="R33" s="12">
+        <v>10</v>
+      </c>
+      <c r="S33" s="12">
+        <v>10</v>
+      </c>
+      <c r="T33" s="12">
+        <v>10</v>
+      </c>
+      <c r="U33" s="12">
+        <v>10</v>
+      </c>
+      <c r="V33" s="12">
+        <v>10</v>
+      </c>
+      <c r="W33" s="12">
+        <v>10</v>
+      </c>
+      <c r="X33" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="12">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
@@ -1914,103 +1708,103 @@
         <v>5</v>
       </c>
       <c r="B34" s="11">
-        <f t="shared" ref="B34:M40" si="0">B$33</f>
-        <v>3</v>
+        <f>B$33</f>
+        <v>10</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="C34:M34" si="0">C$33</f>
+        <v>10</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R34" s="11">
         <f>R$33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" ref="S34:AC40" si="1">S$33</f>
-        <v>0</v>
+        <f t="shared" ref="S34:AC34" si="1">S$33</f>
+        <v>10</v>
       </c>
       <c r="T34" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
@@ -2018,104 +1812,104 @@
         <v>6</v>
       </c>
       <c r="B35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="B35:M40" si="2">B$33</f>
+        <v>10</v>
       </c>
       <c r="C35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="R35" s="11">
-        <f t="shared" ref="R35:R40" si="2">R$33</f>
-        <v>0</v>
+        <f t="shared" ref="R35:AC40" si="3">R$33</f>
+        <v>10</v>
       </c>
       <c r="S35" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="T35" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="V35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="W35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="X35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Y35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AA35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AB35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AC35" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
@@ -2123,104 +1917,104 @@
         <v>7</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="X36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Y36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AA36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AB36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AC36" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
@@ -2228,104 +2022,104 @@
         <v>8</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R37" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="T37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="V37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="W37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="X37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Y37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AA37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AB37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AC37" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
@@ -2333,103 +2127,103 @@
         <v>9</v>
       </c>
       <c r="B38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R38" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S38" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="T38" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="V38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="W38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="X38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Y38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AA38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AB38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AC38" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
@@ -2437,103 +2231,103 @@
         <v>10</v>
       </c>
       <c r="B39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R39" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="T39" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="V39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="W39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="X39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Y39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AA39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AB39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AC39" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
@@ -2541,103 +2335,103 @@
         <v>11</v>
       </c>
       <c r="B40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M40" s="11">
-        <f>M$33</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="W40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Y40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AA40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AB40" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AC40" s="11">
-        <f>AC$33</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
@@ -3505,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E64" s="27">
         <v>4</v>
@@ -3514,7 +3308,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" s="27">
         <v>4</v>
@@ -3523,13 +3317,13 @@
         <v>4</v>
       </c>
       <c r="J64" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M64" s="27">
         <v>1</v>
@@ -3538,40 +3332,40 @@
         <v>4</v>
       </c>
       <c r="R64" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S64" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T64" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
@@ -3579,103 +3373,103 @@
         <v>5</v>
       </c>
       <c r="B65" s="13">
-        <f t="shared" ref="B65:M71" si="3">B$64</f>
+        <f t="shared" ref="B65:M71" si="4">B$64</f>
         <v>4</v>
       </c>
       <c r="C65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G65" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L65" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q65" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" ref="R65:AC71" si="4">R$64</f>
-        <v>0</v>
+        <f t="shared" ref="R65:AC71" si="5">R$64</f>
+        <v>4</v>
       </c>
       <c r="S65" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T65" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.35">
@@ -3683,51 +3477,51 @@
         <v>6</v>
       </c>
       <c r="B66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G66" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P66" s="2"/>
@@ -3735,52 +3529,52 @@
         <v>6</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S66" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T66" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
@@ -3788,51 +3582,51 @@
         <v>7</v>
       </c>
       <c r="B67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D67" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G67" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J67" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K67" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L67" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P67" s="2"/>
@@ -3840,52 +3634,52 @@
         <v>7</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S67" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T67" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.35">
@@ -3893,51 +3687,51 @@
         <v>8</v>
       </c>
       <c r="B68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D68" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G68" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J68" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K68" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L68" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P68" s="3"/>
@@ -3945,52 +3739,52 @@
         <v>8</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S68" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T68" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.35">
@@ -3998,103 +3792,103 @@
         <v>9</v>
       </c>
       <c r="B69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D69" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G69" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J69" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K69" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L69" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q69" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S69" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T69" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
@@ -4102,103 +3896,103 @@
         <v>10</v>
       </c>
       <c r="B70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D70" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G70" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J70" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L70" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S70" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T70" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.35">
@@ -4206,103 +4000,103 @@
         <v>11</v>
       </c>
       <c r="B71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D71" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="E71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G71" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q71" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S71" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T71" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:29" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -4312,7 +4106,7 @@
       <c r="E74" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F74"/>
+      <c r="F74" s="26"/>
       <c r="O74" s="19"/>
       <c r="T74" s="25" t="s">
         <v>34</v>
@@ -4423,7 +4217,7 @@
         <v>26</v>
       </c>
       <c r="D80" s="7">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E80" s="7">
         <v>26</v>
@@ -4432,7 +4226,7 @@
         <v>26</v>
       </c>
       <c r="G80" s="7">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H80" s="7">
         <v>26</v>
@@ -4441,13 +4235,13 @@
         <v>26</v>
       </c>
       <c r="J80" s="7">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="K80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="L80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="M80" s="7">
         <v>99</v>
@@ -4465,13 +4259,13 @@
         <v>26</v>
       </c>
       <c r="U80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="V80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="W80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="X80" s="7">
         <v>26</v>
@@ -4497,102 +4291,102 @@
         <v>5</v>
       </c>
       <c r="B81" s="13">
-        <f t="shared" ref="B81:M87" si="5">B$80</f>
+        <f>B$80</f>
         <v>26</v>
       </c>
       <c r="C81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B81:M87" si="6">C$80</f>
         <v>26</v>
       </c>
       <c r="D81" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="E81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G81" s="13">
-        <f>G$80</f>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="K81" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L81" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M81" s="13">
-        <f>M$80</f>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="Q81" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R81" s="13">
-        <f t="shared" ref="R81:AC87" si="6">R$80</f>
+        <f t="shared" ref="R81:AC87" si="7">R$80</f>
         <v>26</v>
       </c>
       <c r="S81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="T81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="U81" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="V81" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="W81" s="13">
-        <f>W$80</f>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="X81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Y81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Z81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AC81" s="13">
-        <f>AC$80</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
     </row>
@@ -4601,51 +4395,51 @@
         <v>6</v>
       </c>
       <c r="B82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D82" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="E82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G82" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="K82" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L82" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="P82" s="2"/>
@@ -4653,51 +4447,51 @@
         <v>6</v>
       </c>
       <c r="R82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="S82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="T82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="U82" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="V82" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="W82" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="X82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Y82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Z82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AC82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
     </row>
@@ -4706,51 +4500,51 @@
         <v>7</v>
       </c>
       <c r="B83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D83" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="E83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G83" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="K83" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L83" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="P83" s="2"/>
@@ -4758,51 +4552,51 @@
         <v>7</v>
       </c>
       <c r="R83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="S83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="T83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="U83" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="V83" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="W83" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="X83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Y83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Z83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AC83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
     </row>
@@ -4811,51 +4605,51 @@
         <v>8</v>
       </c>
       <c r="B84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D84" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="E84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G84" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="K84" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L84" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="P84" s="3"/>
@@ -4863,51 +4657,51 @@
         <v>8</v>
       </c>
       <c r="R84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="S84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="T84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="U84" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="V84" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="W84" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="X84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Y84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Z84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AC84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
     </row>
@@ -4916,102 +4710,102 @@
         <v>9</v>
       </c>
       <c r="B85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D85" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="E85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G85" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="K85" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="Q85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="S85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="T85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="U85" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="V85" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="W85" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="X85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Y85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Z85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AC85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
     </row>
@@ -5020,102 +4814,102 @@
         <v>10</v>
       </c>
       <c r="B86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D86" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="E86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G86" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="K86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="L86" s="13">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="M86" s="13">
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="L86" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="M86" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
       <c r="Q86" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="S86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="T86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="U86" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="V86" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="W86" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="X86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Y86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Z86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AC86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
     </row>
@@ -5124,1027 +4918,103 @@
         <v>11</v>
       </c>
       <c r="B87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D87" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="E87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G87" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="K87" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L87" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="Q87" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="S87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="T87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="U87" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="V87" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="W87" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="X87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Y87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="Z87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AC87" s="13">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O92" s="33"/>
-    </row>
-    <row r="93" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="O93" s="29"/>
-    </row>
-    <row r="94" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="30">
-        <v>1</v>
-      </c>
-      <c r="C94" s="30">
-        <v>2</v>
-      </c>
-      <c r="D94" s="30">
-        <v>3</v>
-      </c>
-      <c r="E94" s="30">
-        <v>4</v>
-      </c>
-      <c r="F94" s="30">
-        <v>5</v>
-      </c>
-      <c r="G94" s="30">
-        <v>6</v>
-      </c>
-      <c r="H94" s="30">
-        <v>7</v>
-      </c>
-      <c r="I94" s="30">
-        <v>8</v>
-      </c>
-      <c r="J94" s="30">
-        <v>9</v>
-      </c>
-      <c r="K94" s="30">
-        <v>10</v>
-      </c>
-      <c r="L94" s="30">
-        <v>11</v>
-      </c>
-      <c r="M94" s="30">
-        <v>12</v>
-      </c>
-      <c r="O94" s="29"/>
-      <c r="R94" s="30">
-        <v>1</v>
-      </c>
-      <c r="S94" s="30">
-        <v>2</v>
-      </c>
-      <c r="T94" s="30">
-        <v>3</v>
-      </c>
-      <c r="U94" s="30">
-        <v>4</v>
-      </c>
-      <c r="V94" s="30">
-        <v>5</v>
-      </c>
-      <c r="W94" s="30">
-        <v>6</v>
-      </c>
-      <c r="X94" s="30">
-        <v>7</v>
-      </c>
-      <c r="Y94" s="30">
-        <v>8</v>
-      </c>
-      <c r="Z94" s="30">
-        <v>9</v>
-      </c>
-      <c r="AA94" s="30">
-        <v>10</v>
-      </c>
-      <c r="AB94" s="30">
-        <v>11</v>
-      </c>
-      <c r="AC94" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="31">
-        <f>B14*B33/B46</f>
-        <v>21</v>
-      </c>
-      <c r="C95" s="31">
-        <f t="shared" ref="C95:M95" si="7">C14*C33/C46</f>
-        <v>21</v>
-      </c>
-      <c r="D95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="E95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="F95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="G95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="H95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="I95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="J95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="K95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="L95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="M95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="O95" s="29"/>
-      <c r="Q95" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R95" s="31">
-        <f>R14*R33/R46</f>
-        <v>0</v>
-      </c>
-      <c r="S95" s="31">
-        <f t="shared" ref="S95:AC95" si="8">S14*S33/S46</f>
-        <v>0</v>
-      </c>
-      <c r="T95" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="V95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="W95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="X95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="Y95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="Z95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AA95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AB95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AC95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="31">
-        <f t="shared" ref="B96:M101" si="9">B15*B34/B47</f>
-        <v>21</v>
-      </c>
-      <c r="C96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="D96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="H96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="I96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="J96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="K96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="M96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="O96" s="29"/>
-      <c r="Q96" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="R96" s="31">
-        <f t="shared" ref="R96:AC96" si="10">R15*R34/R47</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="31">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T96" s="31">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="V96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="W96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="X96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Y96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="Z96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AA96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AB96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AC96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="C97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="D97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="H97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="I97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="J97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="K97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="M97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="O97" s="29"/>
-      <c r="Q97" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="R97" s="31">
-        <f t="shared" ref="R97:AC97" si="11">R16*R35/R48</f>
-        <v>0</v>
-      </c>
-      <c r="S97" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T97" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="V97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="W97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="X97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="Y97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="Z97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AA97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AB97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AC97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="C98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="D98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="H98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="I98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="J98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="K98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="M98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="O98" s="29"/>
-      <c r="Q98" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="R98" s="31">
-        <f t="shared" ref="R98:AC98" si="12">R17*R36/R49</f>
-        <v>0</v>
-      </c>
-      <c r="S98" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T98" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="V98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="W98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="X98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="Y98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="Z98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AA98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AB98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AC98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="C99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="D99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="H99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="I99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="J99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="K99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="M99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="O99" s="29"/>
-      <c r="Q99" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="R99" s="31">
-        <f t="shared" ref="R99:AC99" si="13">R18*R37/R50</f>
-        <v>0</v>
-      </c>
-      <c r="S99" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T99" s="31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="V99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="W99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="X99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Y99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Z99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AA99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AB99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AC99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="C100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="D100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="H100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="I100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="J100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="K100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="M100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="O100" s="29"/>
-      <c r="Q100" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="R100" s="31">
-        <f t="shared" ref="R100:AC100" si="14">R19*R38/R51</f>
-        <v>0</v>
-      </c>
-      <c r="S100" s="31">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T100" s="31">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="V100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="W100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="X100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="Y100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="Z100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AA100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AB100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AC100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="31">
-        <f>B20*B39/B52</f>
-        <v>21</v>
-      </c>
-      <c r="C101" s="31">
-        <f>C20*C39/C52</f>
-        <v>21</v>
-      </c>
-      <c r="D101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="H101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="I101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="J101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="K101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="L101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="M101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="O101" s="29"/>
-      <c r="Q101" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="R101" s="31">
-        <f t="shared" ref="R101:AC101" si="15">R20*R39/R52</f>
-        <v>0</v>
-      </c>
-      <c r="S101" s="31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T101" s="31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="V101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="W101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="X101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="Y101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="Z101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="AA101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="AB101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="AC101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="31">
-        <f>B21*B40/B53</f>
-        <v>21</v>
-      </c>
-      <c r="C102" s="31">
-        <f>C21*C40/C53</f>
-        <v>21</v>
-      </c>
-      <c r="D102" s="31">
-        <f t="shared" ref="D102:M102" si="16">D21*D40/D53</f>
-        <v>21</v>
-      </c>
-      <c r="E102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="F102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="G102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="H102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="I102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="J102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="K102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="L102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="M102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="O102" s="29"/>
-      <c r="Q102" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R102" s="31">
-        <f>R21*R40/R53</f>
-        <v>0</v>
-      </c>
-      <c r="S102" s="31">
-        <f t="shared" ref="S102:AC102" si="17">S21*S40/S53</f>
-        <v>0</v>
-      </c>
-      <c r="T102" s="31">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="V102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="W102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="X102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="Y102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="Z102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="AA102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="AB102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="AC102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6153,16 +5023,6 @@
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="B95:M102">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
-      <formula>140</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R95:AC102">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
-      <formula>140</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>

--- a/Normalization.xlsx
+++ b/Normalization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Opentron\PycharmProjects\Normalization__Pump_OT2_NewFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E10812-A309-4FB8-A7D6-C7965E44DDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD08BD-8ED3-4D61-A872-C2E51B660D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,8 +334,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,7 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA8D9A5"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9DDAE"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -426,7 +445,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +524,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14:AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +887,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -896,7 +921,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1051,79 +1076,79 @@
         <v>4</v>
       </c>
       <c r="B14" s="34">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="C14" s="34">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="D14" s="34">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="E14" s="34">
-        <v>7</v>
+        <v>10.1</v>
       </c>
       <c r="F14" s="34">
-        <v>7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G14" s="34">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="H14" s="34">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="I14" s="34">
-        <v>7</v>
+        <v>10.8</v>
       </c>
       <c r="J14" s="34">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="K14" s="34">
-        <v>7</v>
+        <v>11.2</v>
       </c>
       <c r="L14" s="34">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="M14" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="37">
-        <v>0</v>
-      </c>
-      <c r="S14" s="37">
-        <v>0</v>
-      </c>
-      <c r="T14" s="37">
-        <v>0</v>
-      </c>
-      <c r="U14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z14" s="37">
-        <v>2.5</v>
+      <c r="R14" s="34">
+        <v>10</v>
+      </c>
+      <c r="S14" s="34">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T14" s="34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U14" s="34">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V14" s="34">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="W14" s="34">
+        <v>10.3</v>
+      </c>
+      <c r="X14" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="Y14" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="Z14" s="38">
+        <v>1</v>
       </c>
       <c r="AA14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB14" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC14" s="37">
-        <v>2.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="AB14" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="AC14" s="38">
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
@@ -1131,79 +1156,79 @@
         <v>5</v>
       </c>
       <c r="B15" s="34">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C15" s="34">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="D15" s="34">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="E15" s="34">
-        <v>7</v>
+        <v>11.1</v>
       </c>
       <c r="F15" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="G15" s="34">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="H15" s="34">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="I15" s="34">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="J15" s="34">
-        <v>7</v>
+        <v>10.9</v>
       </c>
       <c r="K15" s="34">
-        <v>7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L15" s="34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M15" s="34">
-        <v>7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="38">
         <v>0</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="38">
         <v>0</v>
       </c>
-      <c r="T15" s="37">
+      <c r="T15" s="38">
         <v>0</v>
       </c>
-      <c r="U15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W15" s="37">
-        <v>2.5</v>
+      <c r="U15" s="38">
+        <v>0</v>
+      </c>
+      <c r="V15" s="38">
+        <v>0</v>
+      </c>
+      <c r="W15" s="38">
+        <v>0</v>
       </c>
       <c r="X15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y15" s="37">
-        <v>2.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="Y15" s="38">
+        <v>0.7</v>
       </c>
       <c r="Z15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB15" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC15" s="37">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="AC15" s="38">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -1211,80 +1236,80 @@
         <v>6</v>
       </c>
       <c r="B16" s="34">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="C16" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="D16" s="34">
-        <v>7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E16" s="34">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="F16" s="34">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="G16" s="34">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="H16" s="34">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="I16" s="34">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J16" s="34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K16" s="34">
-        <v>7</v>
+        <v>10.1</v>
       </c>
       <c r="L16" s="34">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="M16" s="34">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="38">
         <v>0</v>
       </c>
-      <c r="S16" s="37">
+      <c r="S16" s="38">
         <v>0</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="38">
         <v>0</v>
       </c>
-      <c r="U16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y16" s="37">
-        <v>2.5</v>
+      <c r="U16" s="38">
+        <v>0</v>
+      </c>
+      <c r="V16" s="38">
+        <v>0</v>
+      </c>
+      <c r="W16" s="38">
+        <v>0</v>
+      </c>
+      <c r="X16" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="Y16" s="38">
+        <v>0.4</v>
       </c>
       <c r="Z16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB16" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC16" s="37">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="38">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
@@ -1292,80 +1317,80 @@
         <v>7</v>
       </c>
       <c r="B17" s="34">
-        <v>7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C17" s="34">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="D17" s="34">
-        <v>7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E17" s="34">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="F17" s="34">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G17" s="34">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="H17" s="34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17" s="34">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J17" s="34">
-        <v>7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K17" s="34">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="L17" s="34">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="M17" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="38">
         <v>0</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="38">
         <v>0</v>
       </c>
-      <c r="T17" s="37">
-        <v>0</v>
-      </c>
-      <c r="U17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB17" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC17" s="37">
-        <v>2.5</v>
+      <c r="T17" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="U17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="V17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="X17" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="Y17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="Z17" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="AA17" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="AB17" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="AC17" s="38">
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
@@ -1373,80 +1398,80 @@
         <v>8</v>
       </c>
       <c r="B18" s="34">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="C18" s="34">
-        <v>7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D18" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="E18" s="34">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F18" s="34">
-        <v>7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G18" s="34">
-        <v>7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H18" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I18" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="J18" s="34">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="K18" s="34">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="L18" s="34">
-        <v>7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M18" s="34">
-        <v>7</v>
+        <v>10.8</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="S18" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="T18" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="U18" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="V18" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="W18" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="X18" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" s="38">
         <v>0</v>
       </c>
-      <c r="S18" s="37">
+      <c r="Z18" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="AA18" s="38">
         <v>0</v>
       </c>
-      <c r="T18" s="37">
+      <c r="AB18" s="38">
         <v>0</v>
       </c>
-      <c r="U18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB18" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC18" s="37">
-        <v>2.5</v>
+      <c r="AC18" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
@@ -1454,79 +1479,79 @@
         <v>9</v>
       </c>
       <c r="B19" s="34">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="C19" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="34">
-        <v>7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E19" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="F19" s="34">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="G19" s="34">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H19" s="34">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="I19" s="34">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="J19" s="34">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="K19" s="34">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="L19" s="34">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="M19" s="34">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="S19" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="U19" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="V19" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="W19" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="X19" s="38">
         <v>0</v>
       </c>
-      <c r="S19" s="37">
+      <c r="Y19" s="38">
         <v>0</v>
       </c>
-      <c r="T19" s="37">
+      <c r="Z19" s="38">
         <v>0</v>
       </c>
-      <c r="U19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB19" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC19" s="37">
-        <v>2.5</v>
+      <c r="AA19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="38">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
@@ -1534,79 +1559,79 @@
         <v>10</v>
       </c>
       <c r="B20" s="34">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="C20" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="D20" s="34">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="E20" s="34">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="F20" s="34">
-        <v>7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G20" s="34">
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H20" s="34">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="I20" s="34">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J20" s="34">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="K20" s="34">
-        <v>7</v>
+        <v>10.7</v>
       </c>
       <c r="L20" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M20" s="34">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="37">
-        <v>0</v>
-      </c>
-      <c r="S20" s="37">
-        <v>0</v>
-      </c>
-      <c r="T20" s="37">
-        <v>0</v>
+      <c r="R20" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="T20" s="38">
+        <v>1</v>
       </c>
       <c r="U20" s="37">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="V20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB20" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC20" s="37">
-        <v>2.5</v>
+        <v>1.4</v>
+      </c>
+      <c r="W20" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="X20" s="38">
+        <v>-0.1</v>
+      </c>
+      <c r="Y20" s="38">
+        <v>-0.1</v>
+      </c>
+      <c r="Z20" s="38">
+        <v>-0.1</v>
+      </c>
+      <c r="AA20" s="38">
+        <v>-0.1</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>-0.1</v>
+      </c>
+      <c r="AC20" s="38">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
@@ -1614,79 +1639,79 @@
         <v>11</v>
       </c>
       <c r="B21" s="34">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="C21" s="34">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="D21" s="34">
-        <v>7</v>
+        <v>11.4</v>
       </c>
       <c r="E21" s="34">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="F21" s="34">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="G21" s="34">
-        <v>7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H21" s="34">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="I21" s="34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" s="34">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K21" s="34">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L21" s="34">
-        <v>7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M21" s="34">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="37">
-        <v>0</v>
-      </c>
-      <c r="S21" s="37">
-        <v>0</v>
-      </c>
-      <c r="T21" s="37">
-        <v>0</v>
+      <c r="R21" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="S21" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="T21" s="38">
+        <v>0.6</v>
       </c>
       <c r="U21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="V21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="W21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="X21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Y21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="Z21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AB21" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AC21" s="37">
-        <v>2.5</v>
+        <v>1.8</v>
+      </c>
+      <c r="V21" s="39">
+        <v>2.1</v>
+      </c>
+      <c r="W21" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="X21" s="34">
+        <v>9.4</v>
+      </c>
+      <c r="Y21" s="34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z21" s="34">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="34">
+        <v>11.9</v>
+      </c>
+      <c r="AB21" s="34">
+        <v>10.4</v>
+      </c>
+      <c r="AC21" s="34">
+        <v>11.8</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
@@ -1700,8 +1725,8 @@
         <v>13</v>
       </c>
       <c r="I24">
-        <f>MAX(B14:G21)</f>
-        <v>7</v>
+        <f>MAX(B14:M21)</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
@@ -1710,7 +1735,7 @@
       </c>
       <c r="I25">
         <f>I24*B33/1</f>
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -1834,79 +1859,79 @@
         <v>4</v>
       </c>
       <c r="B33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M33" s="35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="R33" s="35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S33" s="35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T33" s="35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC33" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
@@ -1914,103 +1939,103 @@
         <v>5</v>
       </c>
       <c r="B34" s="11">
-        <f t="shared" ref="B34:M40" si="0">B$33</f>
-        <v>3</v>
+        <f>B$33</f>
+        <v>10</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="C34:M40" si="0">C$33</f>
+        <v>10</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R34" s="11">
         <f>R$33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S34" s="11">
         <f t="shared" ref="S34:AC40" si="1">S$33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T34" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC34" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
@@ -2018,104 +2043,104 @@
         <v>6</v>
       </c>
       <c r="B35" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="B35:B40" si="2">B$33</f>
+        <v>10</v>
       </c>
       <c r="C35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="R35" s="11">
-        <f t="shared" ref="R35:R40" si="2">R$33</f>
-        <v>0</v>
+        <f t="shared" ref="R35:R40" si="3">R$33</f>
+        <v>10</v>
       </c>
       <c r="S35" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T35" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC35" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
@@ -2123,104 +2148,104 @@
         <v>7</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S36" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T36" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC36" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
@@ -2228,104 +2253,104 @@
         <v>8</v>
       </c>
       <c r="B37" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R37" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S37" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T37" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC37" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
@@ -2333,103 +2358,103 @@
         <v>9</v>
       </c>
       <c r="B38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R38" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S38" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T38" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC38" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
@@ -2437,103 +2462,103 @@
         <v>10</v>
       </c>
       <c r="B39" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M39" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R39" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S39" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T39" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC39" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
@@ -2541,103 +2566,103 @@
         <v>11</v>
       </c>
       <c r="B40" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="C40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L40" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M40" s="11">
-        <f>M$33</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="S40" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T40" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Z40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB40" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC40" s="11">
-        <f>AC$33</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
@@ -3526,52 +3551,52 @@
         <v>4</v>
       </c>
       <c r="K64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q64" s="10" t="s">
         <v>4</v>
       </c>
       <c r="R64" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S64" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T64" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC64" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
@@ -3579,103 +3604,103 @@
         <v>5</v>
       </c>
       <c r="B65" s="13">
-        <f t="shared" ref="B65:M71" si="3">B$64</f>
+        <f t="shared" ref="B65:M71" si="4">B$64</f>
         <v>4</v>
       </c>
       <c r="C65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L65" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q65" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R65" s="13">
-        <f t="shared" ref="R65:AC71" si="4">R$64</f>
-        <v>0</v>
+        <f t="shared" ref="R65:AC71" si="5">R$64</f>
+        <v>4</v>
       </c>
       <c r="S65" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T65" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC65" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.35">
@@ -3683,104 +3708,104 @@
         <v>6</v>
       </c>
       <c r="B66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="10" t="s">
         <v>6</v>
       </c>
       <c r="R66" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S66" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T66" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC66" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
@@ -3788,104 +3813,104 @@
         <v>7</v>
       </c>
       <c r="B67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J67" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K67" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L67" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M67" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="10" t="s">
         <v>7</v>
       </c>
       <c r="R67" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S67" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T67" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC67" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.35">
@@ -3893,104 +3918,104 @@
         <v>8</v>
       </c>
       <c r="B68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J68" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K68" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L68" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M68" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R68" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S68" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T68" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC68" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.35">
@@ -3998,103 +4023,103 @@
         <v>9</v>
       </c>
       <c r="B69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J69" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K69" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L69" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M69" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q69" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R69" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S69" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T69" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC69" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
@@ -4102,103 +4127,103 @@
         <v>10</v>
       </c>
       <c r="B70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J70" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L70" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M70" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R70" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S70" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T70" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC70" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.35">
@@ -4206,103 +4231,103 @@
         <v>11</v>
       </c>
       <c r="B71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="M71" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="Q71" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R71" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="S71" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="T71" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="W71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="X71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Y71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="Z71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AA71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AB71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="AC71" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:29" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -4416,41 +4441,41 @@
       <c r="A80" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="7">
-        <v>26</v>
-      </c>
-      <c r="C80" s="7">
-        <v>26</v>
-      </c>
-      <c r="D80" s="7">
-        <v>26</v>
-      </c>
-      <c r="E80" s="7">
-        <v>26</v>
-      </c>
-      <c r="F80" s="7">
-        <v>26</v>
-      </c>
-      <c r="G80" s="7">
-        <v>26</v>
-      </c>
-      <c r="H80" s="7">
-        <v>26</v>
-      </c>
-      <c r="I80" s="7">
-        <v>26</v>
-      </c>
-      <c r="J80" s="7">
-        <v>26</v>
-      </c>
-      <c r="K80" s="7">
-        <v>99</v>
-      </c>
-      <c r="L80" s="7">
-        <v>99</v>
-      </c>
-      <c r="M80" s="7">
-        <v>99</v>
+      <c r="B80" s="27">
+        <v>26</v>
+      </c>
+      <c r="C80" s="27">
+        <v>26</v>
+      </c>
+      <c r="D80" s="27">
+        <v>26</v>
+      </c>
+      <c r="E80" s="27">
+        <v>26</v>
+      </c>
+      <c r="F80" s="27">
+        <v>26</v>
+      </c>
+      <c r="G80" s="27">
+        <v>26</v>
+      </c>
+      <c r="H80" s="27">
+        <v>26</v>
+      </c>
+      <c r="I80" s="27">
+        <v>26</v>
+      </c>
+      <c r="J80" s="27">
+        <v>26</v>
+      </c>
+      <c r="K80" s="27">
+        <v>26</v>
+      </c>
+      <c r="L80" s="27">
+        <v>26</v>
+      </c>
+      <c r="M80" s="27">
+        <v>26</v>
       </c>
       <c r="Q80" s="10" t="s">
         <v>4</v>
@@ -4465,13 +4490,13 @@
         <v>26</v>
       </c>
       <c r="U80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="V80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="W80" s="7">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="X80" s="7">
         <v>26</v>
@@ -4497,23 +4522,23 @@
         <v>5</v>
       </c>
       <c r="B81" s="13">
-        <f t="shared" ref="B81:M87" si="5">B$80</f>
+        <f t="shared" ref="B81:M87" si="6">B$80</f>
         <v>26</v>
       </c>
       <c r="C81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G81" s="13">
@@ -4521,74 +4546,74 @@
         <v>26</v>
       </c>
       <c r="H81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H81:J87" si="7">H$80</f>
         <v>26</v>
       </c>
       <c r="I81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="K81" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L81" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M81" s="13">
         <f>M$80</f>
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="Q81" s="10" t="s">
         <v>5</v>
       </c>
       <c r="R81" s="13">
-        <f t="shared" ref="R81:AC87" si="6">R$80</f>
+        <f t="shared" ref="R81:AC87" si="8">R$80</f>
         <v>26</v>
       </c>
       <c r="S81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="T81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U81" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="V81" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="W81" s="13">
         <f>W$80</f>
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="X81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="X81:Z87" si="9">X$80</f>
         <v>26</v>
       </c>
       <c r="Y81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AA81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AB81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AC81" s="13">
@@ -4601,103 +4626,103 @@
         <v>6</v>
       </c>
       <c r="B82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="H82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="K82" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L82" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M82" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="10" t="s">
         <v>6</v>
       </c>
       <c r="R82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="S82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="T82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U82" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="V82" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="W82" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="X82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Y82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AA82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AB82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AC82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -4706,103 +4731,103 @@
         <v>7</v>
       </c>
       <c r="B83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="H83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="K83" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L83" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M83" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="10" t="s">
         <v>7</v>
       </c>
       <c r="R83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="S83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="T83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U83" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="V83" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="W83" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="X83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Y83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AA83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AB83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AC83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -4811,103 +4836,103 @@
         <v>8</v>
       </c>
       <c r="B84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="H84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="K84" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L84" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M84" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="10" t="s">
         <v>8</v>
       </c>
       <c r="R84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="S84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="T84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U84" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="V84" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="W84" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="X84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Y84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AA84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AB84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AC84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -4916,102 +4941,102 @@
         <v>9</v>
       </c>
       <c r="B85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="H85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="K85" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M85" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="Q85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="S85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="T85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U85" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="V85" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="W85" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="X85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Y85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AA85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AB85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AC85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -5020,102 +5045,102 @@
         <v>10</v>
       </c>
       <c r="B86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="H86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="K86" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L86" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M86" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="Q86" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="S86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="T86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U86" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="V86" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="W86" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="X86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Y86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AA86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AB86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AC86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -5124,102 +5149,102 @@
         <v>11</v>
       </c>
       <c r="B87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="G87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="H87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="K87" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="L87" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="M87" s="13">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>26</v>
       </c>
       <c r="Q87" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="S87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="T87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="U87" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="V87" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="W87" s="13">
-        <f t="shared" si="6"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>26</v>
       </c>
       <c r="X87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Y87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Z87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AA87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AB87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AC87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
@@ -5313,51 +5338,51 @@
       </c>
       <c r="B95" s="31">
         <f>B14*B33/B46</f>
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C95" s="31">
-        <f t="shared" ref="C95:M95" si="7">C14*C33/C46</f>
-        <v>21</v>
+        <f t="shared" ref="C95:M95" si="10">C14*C33/C46</f>
+        <v>78</v>
       </c>
       <c r="D95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>103</v>
       </c>
       <c r="E95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>101</v>
       </c>
       <c r="F95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>97</v>
       </c>
       <c r="G95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>103</v>
       </c>
       <c r="H95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>84</v>
       </c>
       <c r="I95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>108</v>
       </c>
       <c r="J95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>115</v>
       </c>
       <c r="K95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>112</v>
       </c>
       <c r="L95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>91</v>
       </c>
       <c r="M95" s="31">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>90</v>
       </c>
       <c r="O95" s="29"/>
       <c r="Q95" s="30" t="s">
@@ -5365,51 +5390,51 @@
       </c>
       <c r="R95" s="31">
         <f>R14*R33/R46</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S95" s="31">
-        <f t="shared" ref="S95:AC95" si="8">S14*S33/S46</f>
-        <v>0</v>
+        <f t="shared" ref="S95:AC95" si="11">S14*S33/S46</f>
+        <v>88</v>
       </c>
       <c r="T95" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>92</v>
       </c>
       <c r="U95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>88</v>
       </c>
       <c r="V95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>98</v>
       </c>
       <c r="W95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>103</v>
       </c>
       <c r="X95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="Y95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="Z95" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="AA95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="AB95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="AC95" s="31">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -5417,104 +5442,104 @@
         <v>5</v>
       </c>
       <c r="B96" s="31">
-        <f t="shared" ref="B96:M101" si="9">B15*B34/B47</f>
-        <v>21</v>
+        <f>B15*B34/B47</f>
+        <v>105</v>
       </c>
       <c r="C96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" ref="B96:M101" si="12">C15*C34/C47</f>
+        <v>99</v>
       </c>
       <c r="D96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="E96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>111</v>
       </c>
       <c r="F96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="G96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>89</v>
       </c>
       <c r="H96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>94</v>
       </c>
       <c r="I96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>96</v>
       </c>
       <c r="J96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>109</v>
       </c>
       <c r="K96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>97</v>
       </c>
       <c r="L96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="M96" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>93</v>
       </c>
       <c r="O96" s="29"/>
       <c r="Q96" s="30" t="s">
         <v>5</v>
       </c>
       <c r="R96" s="31">
-        <f t="shared" ref="R96:AC96" si="10">R15*R34/R47</f>
+        <f t="shared" ref="R96:AC96" si="13">R15*R34/R47</f>
         <v>0</v>
       </c>
       <c r="S96" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T96" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="V96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="W96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="Y96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="Z96" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA96" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AB96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="AC96" s="31">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -5522,104 +5547,104 @@
         <v>6</v>
       </c>
       <c r="B97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>99</v>
       </c>
       <c r="C97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="D97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>93</v>
       </c>
       <c r="E97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>91</v>
       </c>
       <c r="F97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>84</v>
       </c>
       <c r="G97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>105</v>
       </c>
       <c r="H97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>91</v>
       </c>
       <c r="I97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>88</v>
       </c>
       <c r="J97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="K97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>101</v>
       </c>
       <c r="L97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>96</v>
       </c>
       <c r="M97" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>102</v>
       </c>
       <c r="O97" s="29"/>
       <c r="Q97" s="30" t="s">
         <v>6</v>
       </c>
       <c r="R97" s="31">
-        <f t="shared" ref="R97:AC97" si="11">R16*R35/R48</f>
+        <f t="shared" ref="R97:AC97" si="14">R16*R35/R48</f>
         <v>0</v>
       </c>
       <c r="S97" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T97" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="V97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="W97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="X97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
       <c r="Y97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="Z97" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AA97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="AB97" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AC97" s="31">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -5627,104 +5652,104 @@
         <v>7</v>
       </c>
       <c r="B98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>92</v>
       </c>
       <c r="C98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>99</v>
       </c>
       <c r="D98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>92</v>
       </c>
       <c r="E98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>94</v>
       </c>
       <c r="F98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>88</v>
       </c>
       <c r="G98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>99</v>
       </c>
       <c r="H98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="I98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>88</v>
       </c>
       <c r="J98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>92</v>
       </c>
       <c r="K98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>89</v>
       </c>
       <c r="L98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>106</v>
       </c>
       <c r="M98" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="O98" s="29"/>
       <c r="Q98" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R98" s="31">
-        <f t="shared" ref="R98:AC98" si="12">R17*R36/R49</f>
+        <f t="shared" ref="R98:AC98" si="15">R17*R36/R49</f>
         <v>0</v>
       </c>
       <c r="S98" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T98" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="U98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="V98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="W98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="X98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="Y98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="Z98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="AA98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="AB98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="AC98" s="31">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -5732,104 +5757,104 @@
         <v>8</v>
       </c>
       <c r="B99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>77</v>
       </c>
       <c r="C99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>98</v>
       </c>
       <c r="D99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="E99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>87</v>
       </c>
       <c r="F99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>83</v>
       </c>
       <c r="G99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>97</v>
       </c>
       <c r="H99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="I99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="J99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>86</v>
       </c>
       <c r="K99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>85</v>
       </c>
       <c r="L99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>83</v>
       </c>
       <c r="M99" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>108</v>
       </c>
       <c r="O99" s="29"/>
       <c r="Q99" s="30" t="s">
         <v>8</v>
       </c>
       <c r="R99" s="31">
-        <f t="shared" ref="R99:AC99" si="13">R18*R37/R50</f>
+        <f t="shared" ref="R99:AC99" si="16">R18*R37/R50</f>
+        <v>1</v>
+      </c>
+      <c r="S99" s="31">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="T99" s="31">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="U99" s="31">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="V99" s="31">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="W99" s="31">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="X99" s="31">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="Y99" s="31">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S99" s="31">
-        <f t="shared" si="13"/>
+      <c r="Z99" s="31">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AA99" s="31">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T99" s="31">
-        <f t="shared" si="13"/>
+      <c r="AB99" s="31">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="V99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="W99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="X99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Y99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Z99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AA99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AB99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
       <c r="AC99" s="31">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -5837,104 +5862,104 @@
         <v>9</v>
       </c>
       <c r="B100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>78</v>
       </c>
       <c r="C100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="D100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>98</v>
       </c>
       <c r="E100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="F100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>89</v>
       </c>
       <c r="G100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>88</v>
       </c>
       <c r="H100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>89</v>
       </c>
       <c r="I100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>96</v>
       </c>
       <c r="J100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>91</v>
       </c>
       <c r="K100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>94</v>
       </c>
       <c r="L100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>81</v>
       </c>
       <c r="M100" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>89</v>
       </c>
       <c r="O100" s="29"/>
       <c r="Q100" s="30" t="s">
         <v>9</v>
       </c>
       <c r="R100" s="31">
-        <f t="shared" ref="R100:AC100" si="14">R19*R38/R51</f>
+        <f t="shared" ref="R100:AC100" si="17">R19*R38/R51</f>
+        <v>8</v>
+      </c>
+      <c r="S100" s="31">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="T100" s="31">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="U100" s="31">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="V100" s="31">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="W100" s="31">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="X100" s="31">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S100" s="31">
-        <f t="shared" si="14"/>
+      <c r="Y100" s="31">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T100" s="31">
-        <f t="shared" si="14"/>
+      <c r="Z100" s="31">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="V100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="W100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="X100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="Y100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="Z100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
       <c r="AA100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="AB100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="AC100" s="31">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -5943,103 +5968,103 @@
       </c>
       <c r="B101" s="31">
         <f>B20*B39/B52</f>
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C101" s="31">
         <f>C20*C39/C52</f>
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="E101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>95</v>
       </c>
       <c r="F101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>83</v>
       </c>
       <c r="G101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>87</v>
       </c>
       <c r="H101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>106</v>
       </c>
       <c r="I101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>88</v>
       </c>
       <c r="J101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>106</v>
       </c>
       <c r="K101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>107</v>
       </c>
       <c r="L101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="M101" s="31">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>94</v>
       </c>
       <c r="O101" s="29"/>
       <c r="Q101" s="30" t="s">
         <v>10</v>
       </c>
       <c r="R101" s="31">
-        <f t="shared" ref="R101:AC101" si="15">R20*R39/R52</f>
-        <v>0</v>
+        <f t="shared" ref="R101:AC101" si="18">R20*R39/R52</f>
+        <v>5</v>
       </c>
       <c r="S101" s="31">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="T101" s="31">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="U101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="V101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="W101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>9</v>
       </c>
       <c r="X101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>-1</v>
       </c>
       <c r="Y101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>-1</v>
       </c>
       <c r="Z101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>-1</v>
       </c>
       <c r="AA101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>-1</v>
       </c>
       <c r="AB101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>-1</v>
       </c>
       <c r="AC101" s="31">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.35">
@@ -6048,51 +6073,51 @@
       </c>
       <c r="B102" s="31">
         <f>B21*B40/B53</f>
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C102" s="31">
         <f>C21*C40/C53</f>
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D102" s="31">
-        <f t="shared" ref="D102:M102" si="16">D21*D40/D53</f>
-        <v>21</v>
+        <f t="shared" ref="D102:M102" si="19">D21*D40/D53</f>
+        <v>114</v>
       </c>
       <c r="E102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>106</v>
       </c>
       <c r="F102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>94</v>
       </c>
       <c r="G102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>98</v>
       </c>
       <c r="H102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>103</v>
       </c>
       <c r="I102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>80</v>
       </c>
       <c r="J102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="K102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>102</v>
       </c>
       <c r="L102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>97</v>
       </c>
       <c r="M102" s="31">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>103</v>
       </c>
       <c r="O102" s="29"/>
       <c r="Q102" s="30" t="s">
@@ -6100,51 +6125,51 @@
       </c>
       <c r="R102" s="31">
         <f>R21*R40/R53</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S102" s="31">
-        <f t="shared" ref="S102:AC102" si="17">S21*S40/S53</f>
-        <v>0</v>
+        <f t="shared" ref="S102:AC102" si="20">S21*S40/S53</f>
+        <v>3</v>
       </c>
       <c r="T102" s="31">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="U102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="V102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="W102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="X102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>94</v>
       </c>
       <c r="Y102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>83</v>
       </c>
       <c r="Z102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>100</v>
       </c>
       <c r="AA102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>119</v>
       </c>
       <c r="AB102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>104</v>
       </c>
       <c r="AC102" s="31">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6230,15 +6255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080FEA58812FDF848A00D02526A9BE0F1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b03730733f156bf2adb31be2122151db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38bded79-7fe6-4856-b7ce-255395a57c39" xmlns:ns3="1095b065-d1a3-488d-970b-5ecefe5cf80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be8a7047d1d113139b54425a66ec777d" ns2:_="" ns3:_="">
     <xsd:import namespace="38bded79-7fe6-4856-b7ce-255395a57c39"/>
@@ -6467,15 +6483,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E7A527-3EA2-4B17-94B3-C91BC7C1E815}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13062CF7-E055-4C64-9017-58298C92DE4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6492,4 +6509,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99E7A527-3EA2-4B17-94B3-C91BC7C1E815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>